--- a/src/test/resources/Data/KiehlsTestData.xlsx
+++ b/src/test/resources/Data/KiehlsTestData.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B997081F-A184-4F57-833B-36C52B1978C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9471B6D0-ABBA-44C4-B1E0-E503D2E88899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
     <sheet name="store_credentials" sheetId="2" r:id="rId2"/>
     <sheet name="ba_credentials" sheetId="3" r:id="rId3"/>
-    <sheet name="customer_testdata" sheetId="4" r:id="rId4"/>
+    <sheet name="custom_data" sheetId="5" r:id="rId4"/>
+    <sheet name="customer_testdata" sheetId="4" r:id="rId5"/>
+    <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="139">
   <si>
     <t>segment</t>
   </si>
@@ -221,6 +223,12 @@
     <t>PKMH012345</t>
   </si>
   <si>
+    <t>TH_national_id</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -233,6 +241,9 @@
     <t>mobile_number</t>
   </si>
   <si>
+    <t>mobile_number_rand</t>
+  </si>
+  <si>
     <t>landline_number</t>
   </si>
   <si>
@@ -242,7 +253,16 @@
     <t>dob_month</t>
   </si>
   <si>
-    <t>dob_year</t>
+    <t>dob_month_short</t>
+  </si>
+  <si>
+    <t>dob_year_1994</t>
+  </si>
+  <si>
+    <t>dob_year_2006</t>
+  </si>
+  <si>
+    <t>dob_year_2003</t>
   </si>
   <si>
     <t>gender_male</t>
@@ -254,6 +274,9 @@
     <t>email_id</t>
   </si>
   <si>
+    <t>test_name</t>
+  </si>
+  <si>
     <t>add_street_number</t>
   </si>
   <si>
@@ -290,10 +313,28 @@
     <t>member_id</t>
   </si>
   <si>
-    <t>TestXYZ</t>
-  </si>
-  <si>
-    <t>TestABC</t>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>customer_title</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>email_address2</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AM</t>
   </si>
   <si>
     <t>TestMid</t>
@@ -302,6 +343,9 @@
     <t>April</t>
   </si>
   <si>
+    <t>Apr</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -311,10 +355,10 @@
     <t>mraghuram19@gmail.com</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>abcd</t>
+    <t>testStreet</t>
+  </si>
+  <si>
+    <t>testCity</t>
   </si>
   <si>
     <t>Queensland</t>
@@ -332,14 +376,98 @@
     <t>サンプル</t>
   </si>
   <si>
-    <t>testmail</t>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Tourist</t>
+  </si>
+  <si>
+    <t>FE243</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>FE244</t>
+  </si>
+  <si>
+    <t>FE245</t>
+  </si>
+  <si>
+    <t>FE246</t>
+  </si>
+  <si>
+    <t>FE247</t>
+  </si>
+  <si>
+    <t>FE248</t>
+  </si>
+  <si>
+    <t>FE249</t>
+  </si>
+  <si>
+    <t>FE250</t>
+  </si>
+  <si>
+    <t>FE251</t>
+  </si>
+  <si>
+    <t>Kiehls_product1</t>
+  </si>
+  <si>
+    <t>Kiehls_product2</t>
+  </si>
+  <si>
+    <t>Valentino_product1</t>
+  </si>
+  <si>
+    <t>Valentino_product2</t>
+  </si>
+  <si>
+    <t>Lancome_product1</t>
+  </si>
+  <si>
+    <t>Lancome_product2</t>
+  </si>
+  <si>
+    <t>ULTRA FACIAL CREAM</t>
+  </si>
+  <si>
+    <t>DERM PSLRC R18 50ML</t>
+  </si>
+  <si>
+    <t>Skin Rescuer</t>
+  </si>
+  <si>
+    <t>Ultra Facial Cream</t>
+  </si>
+  <si>
+    <t>SP EYE GEL 15ML</t>
+  </si>
+  <si>
+    <t>VLTN ROSSO MATTE 107A</t>
+  </si>
+  <si>
+    <t>ABS EXTRAIT LTN 150 B</t>
+  </si>
+  <si>
+    <t>FG RE MEMORY LTN 200</t>
+  </si>
+  <si>
+    <t>PSLRC 50ML</t>
+  </si>
+  <si>
+    <t>CC DARK SPOT 30ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,19 +540,37 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -436,10 +582,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -457,15 +604,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -791,15 +952,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -807,7 +968,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -815,7 +976,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -823,7 +984,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -831,7 +992,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -839,7 +1000,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -847,7 +1008,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -855,7 +1016,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -863,7 +1024,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -885,7 +1046,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1116,7 +1277,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1334,11 +1495,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E2D506-4548-4DC9-A70E-4B10405D5BF5}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="16">
+        <v>8548565948260</v>
+      </c>
+      <c r="B2" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="16">
+        <v>9450469853557</v>
+      </c>
+      <c r="B3" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="16">
+        <v>3948669967118</v>
+      </c>
+      <c r="B4" s="18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="16">
+        <v>1059720392655</v>
+      </c>
+      <c r="B5" s="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="16">
+        <v>6760625788811</v>
+      </c>
+      <c r="B6" s="18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="16">
+        <v>9133812723983</v>
+      </c>
+      <c r="B7" s="18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="16">
+        <v>2416335689653</v>
+      </c>
+      <c r="B8" s="18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="16">
+        <v>5528237059081</v>
+      </c>
+      <c r="B9" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="16">
+        <v>8310005688801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="16">
+        <v>2522400209610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="16">
+        <v>8080396582252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="16">
+        <v>3112996418968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="16">
+        <v>7112759843145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="16">
+        <v>4515849177246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="16">
+        <v>7101053760872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75">
+      <c r="A17" s="16">
+        <v>4365374204670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75">
+      <c r="A18" s="16">
+        <v>4389196704772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75">
+      <c r="A19" s="16">
+        <v>6301024076195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75">
+      <c r="A20" s="16">
+        <v>2055217028820</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75">
+      <c r="A21" s="16">
+        <v>8088310123596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75">
+      <c r="A22" s="16">
+        <v>8531189940672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75">
+      <c r="A23" s="16">
+        <v>8585943805517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75">
+      <c r="A24" s="16">
+        <v>3317827396986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75">
+      <c r="A25" s="16">
+        <v>2871694312134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75">
+      <c r="A26" s="16">
+        <v>3740887733270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1346,765 +1683,1255 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="17" width="25.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" customWidth="1"/>
+    <col min="30" max="30" width="10" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" customWidth="1"/>
+    <col min="34" max="34" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1">
+    <row r="1" spans="1:35" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="5">
-        <v>9876543212</v>
-      </c>
-      <c r="F2" s="4">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>6161616161</v>
+      </c>
+      <c r="F2">
+        <v>98765</v>
+      </c>
+      <c r="G2">
         <v>4455667788</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2">
         <v>1994</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="L2">
+        <v>2006</v>
+      </c>
+      <c r="M2">
+        <v>2003</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="13">
+      <c r="S2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2">
         <v>4000</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="W2">
+      <c r="V2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2">
         <v>8280004</v>
       </c>
-      <c r="X2">
+      <c r="AC2">
         <v>4786532</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="AD2">
+        <v>852</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="5">
-        <v>98765</v>
-      </c>
-      <c r="F3" s="4">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>9876543212</v>
+      </c>
+      <c r="F3">
+        <v>720123</v>
+      </c>
+      <c r="G3">
         <v>4455667788</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>1994</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="L3">
+        <v>2006</v>
+      </c>
+      <c r="M3">
+        <v>2003</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3">
         <v>11</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="S3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3">
         <v>123456</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="10">
+      <c r="V3" t="s">
+        <v>105</v>
+      </c>
+      <c r="W3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3">
         <v>720123</v>
       </c>
-      <c r="U3" t="s">
-        <v>94</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="W3">
+      <c r="Z3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB3">
         <v>8280004</v>
       </c>
-      <c r="X3">
-        <v>4786532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="AC3">
+        <v>573</v>
+      </c>
+      <c r="AD3">
+        <v>852</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="5">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4">
         <v>9876543212</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
+        <v>61616</v>
+      </c>
+      <c r="G4">
         <v>4455667788</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
         <v>1994</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="L4">
+        <v>2006</v>
+      </c>
+      <c r="M4">
+        <v>2003</v>
+      </c>
+      <c r="N4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4">
         <v>11</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4">
         <v>123456</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" t="s">
-        <v>92</v>
-      </c>
-      <c r="S4" t="s">
-        <v>93</v>
-      </c>
-      <c r="U4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="W4">
+      <c r="V4" t="s">
+        <v>105</v>
+      </c>
+      <c r="W4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB4">
         <v>8280004</v>
       </c>
-      <c r="X4">
+      <c r="AC4">
         <v>4786532</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="AD4">
+        <v>852</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI4" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="5">
-        <v>98765</v>
-      </c>
-      <c r="F5" s="4">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>9876543212</v>
+      </c>
+      <c r="F5">
+        <v>18465</v>
+      </c>
+      <c r="G5">
         <v>4455667788</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
         <v>1994</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="L5">
+        <v>2006</v>
+      </c>
+      <c r="M5">
+        <v>2003</v>
+      </c>
+      <c r="N5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5">
         <v>11</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="S5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5">
         <v>123456</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" t="s">
-        <v>92</v>
-      </c>
-      <c r="S5" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" s="10">
+      <c r="V5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y5">
         <v>720123</v>
       </c>
-      <c r="U5" t="s">
-        <v>94</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="W5">
+      <c r="Z5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB5">
         <v>8280004</v>
       </c>
-      <c r="X5">
+      <c r="AC5">
         <v>4786532</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="AD5">
+        <v>852</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI5" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="5">
-        <v>9876543212</v>
-      </c>
-      <c r="F6" s="4">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <v>60838324</v>
+      </c>
+      <c r="F6">
+        <v>98765</v>
+      </c>
+      <c r="G6">
         <v>4455667788</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
         <v>1994</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="L6">
+        <v>2006</v>
+      </c>
+      <c r="M6">
+        <v>2003</v>
+      </c>
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6">
         <v>11</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="S6" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6">
         <v>123456</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U6" t="s">
-        <v>94</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="W6">
+      <c r="V6" t="s">
+        <v>105</v>
+      </c>
+      <c r="W6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6">
         <v>8280004</v>
       </c>
-      <c r="X6">
+      <c r="AC6">
         <v>4786532</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="AD6">
+        <v>852</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI6" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="5">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <v>6161616161</v>
+      </c>
+      <c r="F7">
         <v>98765</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7">
         <v>4455667788</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>1994</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="L7">
+        <v>2006</v>
+      </c>
+      <c r="M7">
+        <v>2003</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7">
         <v>11</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="S7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" t="s">
+        <v>104</v>
+      </c>
+      <c r="U7">
         <v>123456</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R7" t="s">
-        <v>92</v>
-      </c>
-      <c r="S7" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="10">
+      <c r="V7" t="s">
+        <v>105</v>
+      </c>
+      <c r="W7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y7">
         <v>720123</v>
       </c>
-      <c r="U7" t="s">
-        <v>94</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="W7">
+      <c r="Z7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB7">
         <v>8280004</v>
       </c>
-      <c r="X7">
+      <c r="AC7">
         <v>4786532</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="AD7">
+        <v>852</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI7" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="5">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8">
         <v>9876543212</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
+        <v>82323</v>
+      </c>
+      <c r="G8">
         <v>4455667788</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
         <v>1994</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="L8">
+        <v>2006</v>
+      </c>
+      <c r="M8">
+        <v>2003</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8">
         <v>11</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="S8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" t="s">
+        <v>104</v>
+      </c>
+      <c r="U8">
         <v>123456</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" t="s">
-        <v>92</v>
-      </c>
-      <c r="S8" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" t="s">
-        <v>94</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="W8">
+      <c r="V8" t="s">
+        <v>105</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB8">
         <v>8280004</v>
       </c>
-      <c r="X8">
+      <c r="AC8">
         <v>4786532</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="AD8">
+        <v>852</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI8" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="5">
-        <v>98765</v>
-      </c>
-      <c r="F9" s="4">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9">
+        <v>9876543212</v>
+      </c>
+      <c r="F9" s="19">
+        <v>88834</v>
+      </c>
+      <c r="G9">
         <v>4455667788</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
         <v>1994</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="L9">
+        <v>2006</v>
+      </c>
+      <c r="M9">
+        <v>2003</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9">
         <v>11</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" s="4">
+      <c r="S9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" t="s">
+        <v>104</v>
+      </c>
+      <c r="U9">
         <v>123456</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" t="s">
-        <v>93</v>
-      </c>
-      <c r="T9" s="10">
+      <c r="V9" t="s">
+        <v>105</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9">
         <v>720123</v>
       </c>
-      <c r="U9" t="s">
-        <v>94</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="W9">
+      <c r="Z9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB9">
         <v>8280004</v>
       </c>
-      <c r="X9">
+      <c r="AC9">
         <v>4786532</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="AD9">
+        <v>852</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI9" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="5">
-        <v>9876543212</v>
-      </c>
-      <c r="F10" s="4">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10">
+        <v>6161616161</v>
+      </c>
+      <c r="F10">
+        <v>98765</v>
+      </c>
+      <c r="G10">
         <v>4455667788</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
         <v>1994</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="L10">
+        <v>2006</v>
+      </c>
+      <c r="M10">
+        <v>2003</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10">
         <v>11</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="S10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10">
         <v>123456</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" t="s">
-        <v>92</v>
-      </c>
-      <c r="S10" t="s">
-        <v>93</v>
-      </c>
-      <c r="U10" t="s">
-        <v>94</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="W10">
+      <c r="V10" t="s">
+        <v>105</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB10">
         <v>8280004</v>
       </c>
-      <c r="X10">
+      <c r="AC10">
         <v>4786532</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="AD10">
+        <v>852</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI10" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="8"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
-      <c r="T11" s="10"/>
-      <c r="V11" s="9"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="3"/>
+      <c r="Y11" s="10"/>
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="AA12" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AI2" r:id="rId1" xr:uid="{8611917F-E5E5-4B64-8823-8B0D86368674}"/>
+    <hyperlink ref="AI3:AI10" r:id="rId2" display="a@a.com" xr:uid="{2121E3B4-47CC-415A-8F5F-D1F4C19CD929}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Data/KiehlsTestData.xlsx
+++ b/src/test/resources/Data/KiehlsTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9471B6D0-ABBA-44C4-B1E0-E503D2E88899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63851B26-DBE0-46E2-9E4A-2FC735D5AEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="141">
   <si>
     <t>segment</t>
   </si>
@@ -331,6 +331,9 @@
     <t>email_address2</t>
   </si>
   <si>
+    <t>email_address3</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
@@ -388,6 +391,9 @@
     <t>FE243</t>
   </si>
   <si>
+    <t>suzytoure@gmail.com</t>
+  </si>
+  <si>
     <t>a@a.com</t>
   </si>
   <si>
@@ -439,7 +445,7 @@
     <t>DERM PSLRC R18 50ML</t>
   </si>
   <si>
-    <t>Skin Rescuer</t>
+    <t>Buttermask for Lips</t>
   </si>
   <si>
     <t>Ultra Facial Cream</t>
@@ -1046,7 +1052,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1277,7 +1283,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1672,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AI10"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AQ15" sqref="AQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1708,7 +1714,7 @@
     <col min="34" max="34" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1">
+    <row r="1" spans="1:36" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,19 +1820,22 @@
       <c r="AI1" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -1841,10 +1850,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -1856,13 +1865,13 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q2" t="s">
         <v>60</v>
@@ -1871,28 +1880,28 @@
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -1904,33 +1913,36 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI2" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -1945,10 +1957,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -1960,13 +1972,13 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q3" t="s">
         <v>60</v>
@@ -1975,31 +1987,31 @@
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -2011,33 +2023,36 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI3" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>116</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2052,10 +2067,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2067,13 +2082,13 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q4" t="s">
         <v>60</v>
@@ -2082,28 +2097,28 @@
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2115,33 +2130,36 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AI4" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2156,10 +2174,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2171,13 +2189,13 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -2186,31 +2204,31 @@
         <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2222,33 +2240,36 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AI5" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <v>116</v>
+      </c>
+      <c r="AJ5" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>60838324</v>
@@ -2263,10 +2284,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2278,13 +2299,13 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6" t="s">
         <v>60</v>
@@ -2293,28 +2314,28 @@
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2326,33 +2347,36 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AI6" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <v>116</v>
+      </c>
+      <c r="AJ6" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -2367,10 +2391,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -2382,13 +2406,13 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q7" t="s">
         <v>60</v>
@@ -2397,31 +2421,31 @@
         <v>11</v>
       </c>
       <c r="S7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -2433,33 +2457,36 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AI7" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+        <v>116</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -2474,10 +2501,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -2489,13 +2516,13 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8" t="s">
         <v>60</v>
@@ -2504,28 +2531,28 @@
         <v>11</v>
       </c>
       <c r="S8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -2537,33 +2564,36 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AI8" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+        <v>116</v>
+      </c>
+      <c r="AJ8" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
@@ -2578,10 +2608,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -2593,13 +2623,13 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q9" t="s">
         <v>60</v>
@@ -2608,31 +2638,31 @@
         <v>11</v>
       </c>
       <c r="S9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -2644,33 +2674,36 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI9" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+        <v>116</v>
+      </c>
+      <c r="AJ9" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>6161616161</v>
@@ -2685,10 +2718,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>1994</v>
@@ -2700,13 +2733,13 @@
         <v>2003</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q10" t="s">
         <v>60</v>
@@ -2715,28 +2748,28 @@
         <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U10">
         <v>123456</v>
       </c>
       <c r="V10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB10">
         <v>8280004</v>
@@ -2748,22 +2781,25 @@
         <v>852</v>
       </c>
       <c r="AE10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AI10" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+        <v>116</v>
+      </c>
+      <c r="AJ10" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2786,7 +2822,7 @@
       <c r="Y11" s="10"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:36">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2812,6 +2848,8 @@
   <hyperlinks>
     <hyperlink ref="AI2" r:id="rId1" xr:uid="{8611917F-E5E5-4B64-8823-8B0D86368674}"/>
     <hyperlink ref="AI3:AI10" r:id="rId2" display="a@a.com" xr:uid="{2121E3B4-47CC-415A-8F5F-D1F4C19CD929}"/>
+    <hyperlink ref="AJ3:AJ10" r:id="rId3" display="a@a.com" xr:uid="{66F15A09-FA0A-4385-8239-C7FE1B870288}"/>
+    <hyperlink ref="AJ2" r:id="rId4" xr:uid="{A10CFF93-CD4C-4FB5-B74D-1107F393E76E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2821,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2840,22 +2878,22 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2863,10 +2901,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2879,10 +2917,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2895,16 +2933,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2922,10 +2960,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/src/test/resources/Data/KiehlsTestData.xlsx
+++ b/src/test/resources/Data/KiehlsTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26223"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63851B26-DBE0-46E2-9E4A-2FC735D5AEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD13916-78CB-4F34-9882-205EB373FDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="143">
   <si>
     <t>segment</t>
   </si>
@@ -334,6 +334,9 @@
     <t>email_address3</t>
   </si>
   <si>
+    <t>mars_id</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
@@ -400,6 +403,9 @@
     <t>FE244</t>
   </si>
   <si>
+    <t>45CA0022781</t>
+  </si>
+  <si>
     <t>FE245</t>
   </si>
   <si>
@@ -421,10 +427,10 @@
     <t>FE251</t>
   </si>
   <si>
-    <t>Kiehls_product1</t>
-  </si>
-  <si>
-    <t>Kiehls_product2</t>
+    <t>product1</t>
+  </si>
+  <si>
+    <t>product2</t>
   </si>
   <si>
     <t>Valentino_product1</t>
@@ -1283,7 +1289,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1678,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AQ15" sqref="AQ15"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1714,7 +1720,7 @@
     <col min="34" max="34" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1">
+    <row r="1" spans="1:37" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1823,19 +1829,22 @@
       <c r="AJ1" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -1850,10 +1859,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -1865,13 +1874,13 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q2" t="s">
         <v>60</v>
@@ -1880,28 +1889,28 @@
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -1913,36 +1922,36 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AI2" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AJ2" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -1957,10 +1966,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -1972,13 +1981,13 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q3" t="s">
         <v>60</v>
@@ -1987,31 +1996,31 @@
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -2023,36 +2032,39 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI3" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="AI3" s="20" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ3" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+        <v>117</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2067,10 +2079,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2082,13 +2094,13 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q4" t="s">
         <v>60</v>
@@ -2097,28 +2109,28 @@
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2130,36 +2142,36 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AI4" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ4" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2174,10 +2186,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2189,13 +2201,13 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -2204,31 +2216,31 @@
         <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2240,36 +2252,36 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AI5" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ5" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>60838324</v>
@@ -2284,10 +2296,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2299,13 +2311,13 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q6" t="s">
         <v>60</v>
@@ -2314,28 +2326,28 @@
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2347,36 +2359,36 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AI6" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ6" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -2391,10 +2403,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -2406,13 +2418,13 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7" t="s">
         <v>60</v>
@@ -2421,31 +2433,31 @@
         <v>11</v>
       </c>
       <c r="S7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -2457,36 +2469,36 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI7" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ7" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -2501,10 +2513,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -2516,13 +2528,13 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q8" t="s">
         <v>60</v>
@@ -2531,28 +2543,28 @@
         <v>11</v>
       </c>
       <c r="S8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -2564,36 +2576,36 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AI8" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ8" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
@@ -2608,10 +2620,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -2623,13 +2635,13 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q9" t="s">
         <v>60</v>
@@ -2638,31 +2650,31 @@
         <v>11</v>
       </c>
       <c r="S9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -2674,36 +2686,36 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AI9" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ9" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>6161616161</v>
@@ -2718,10 +2730,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10">
         <v>1994</v>
@@ -2733,13 +2745,13 @@
         <v>2003</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10" t="s">
         <v>60</v>
@@ -2748,28 +2760,28 @@
         <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U10">
         <v>123456</v>
       </c>
       <c r="V10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB10">
         <v>8280004</v>
@@ -2781,25 +2793,25 @@
         <v>852</v>
       </c>
       <c r="AE10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI10" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ10" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2822,7 +2834,7 @@
       <c r="Y11" s="10"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2859,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2878,22 +2890,22 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2901,10 +2913,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2917,10 +2929,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2933,16 +2945,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2960,10 +2972,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/src/test/resources/Data/KiehlsTestData.xlsx
+++ b/src/test/resources/Data/KiehlsTestData.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD13916-78CB-4F34-9882-205EB373FDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11AC66D2-6868-4D33-A6E1-B74949CEF506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
     <sheet name="store_credentials" sheetId="2" r:id="rId2"/>
     <sheet name="ba_credentials" sheetId="3" r:id="rId3"/>
-    <sheet name="custom_data" sheetId="5" r:id="rId4"/>
-    <sheet name="customer_testdata" sheetId="4" r:id="rId5"/>
-    <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId6"/>
+    <sheet name="cms_configuration" sheetId="8" r:id="rId4"/>
+    <sheet name="data_configuration" sheetId="9" r:id="rId5"/>
+    <sheet name="custom_data" sheetId="5" r:id="rId6"/>
+    <sheet name="customer_testdata" sheetId="4" r:id="rId7"/>
+    <sheet name="member_data" sheetId="7" r:id="rId8"/>
+    <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,8 +35,25 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Manikandan Mohan</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{3E719351-4A0D-400F-AF31-F5FD832B6719}">
+      <text>
+        <t xml:space="preserve">Page mode : 
+multi / single
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="171">
   <si>
     <t>segment</t>
   </si>
@@ -223,6 +243,63 @@
     <t>PKMH012345</t>
   </si>
   <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>service_booking</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>consultation_page_mode</t>
+  </si>
+  <si>
+    <t>product_reservation</t>
+  </si>
+  <si>
+    <t>welcome_popup</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>multi</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mars ID</t>
+  </si>
+  <si>
+    <t>Lucid</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>TH_national_id</t>
   </si>
   <si>
@@ -427,59 +504,86 @@
     <t>FE251</t>
   </si>
   <si>
+    <t>emptydatatest@gmail.com</t>
+  </si>
+  <si>
+    <t>EmptyData</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>45WM6000403</t>
+  </si>
+  <si>
+    <t>C70000000055363</t>
+  </si>
+  <si>
     <t>product1</t>
   </si>
   <si>
     <t>product2</t>
   </si>
   <si>
-    <t>Valentino_product1</t>
-  </si>
-  <si>
-    <t>Valentino_product2</t>
-  </si>
-  <si>
-    <t>Lancome_product1</t>
-  </si>
-  <si>
-    <t>Lancome_product2</t>
-  </si>
-  <si>
     <t>ULTRA FACIAL CREAM</t>
   </si>
   <si>
     <t>DERM PSLRC R18 50ML</t>
   </si>
   <si>
+    <t>ultra facial toner</t>
+  </si>
+  <si>
+    <t>baby lip balm</t>
+  </si>
+  <si>
     <t>Buttermask for Lips</t>
   </si>
   <si>
     <t>Ultra Facial Cream</t>
   </si>
   <si>
+    <t>MIDNIGHT RECOVERY EYE OS 15ML</t>
+  </si>
+  <si>
+    <t>ultra facial masque 125ml os</t>
+  </si>
+  <si>
     <t>SP EYE GEL 15ML</t>
   </si>
   <si>
-    <t>VLTN ROSSO MATTE 107A</t>
-  </si>
-  <si>
-    <t>ABS EXTRAIT LTN 150 B</t>
-  </si>
-  <si>
-    <t>FG RE MEMORY LTN 200</t>
+    <t>avocado mask 100ml</t>
+  </si>
+  <si>
+    <t>MIDNIGHT RECOVERY EYE</t>
+  </si>
+  <si>
+    <t>youth dose eye treatment</t>
+  </si>
+  <si>
+    <t>age defender eye repair</t>
+  </si>
+  <si>
+    <t>age defender moisturizer</t>
   </si>
   <si>
     <t>PSLRC 50ML</t>
   </si>
   <si>
     <t>CC DARK SPOT 30ML</t>
+  </si>
+  <si>
+    <t>ultra facial cleanser</t>
+  </si>
+  <si>
+    <t>blue herbal spot treatment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +674,18 @@
       <name val="Menlo"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -598,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -636,6 +752,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1058,7 +1177,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1289,7 +1408,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1507,10 +1626,634 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE936C67-D4ED-4EB5-BBEB-A1EFB6D93302}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87589F0-DF68-4174-AC70-DE8ED675C90A}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E2D506-4548-4DC9-A70E-4B10405D5BF5}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1522,10 +2265,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -1682,13 +2425,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
   <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1725,112 +2466,112 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -1838,13 +2579,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -1859,10 +2600,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -1874,43 +2615,43 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O2" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="R2">
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="T2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="W2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="X2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Z2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AA2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -1922,22 +2663,22 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AF2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AG2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AH2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="AI2" s="20" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="AJ2" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -1945,13 +2686,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -1966,10 +2707,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -1981,46 +2722,46 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O3" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="Q3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="R3">
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="T3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="W3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="X3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AA3" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -2032,25 +2773,25 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AF3" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AG3" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AH3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="AI3" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AJ3" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AK3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2058,13 +2799,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2079,10 +2820,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2094,43 +2835,43 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O4" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="T4" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="W4" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="X4" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Z4" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AA4" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2142,22 +2883,22 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AF4" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AG4" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AH4" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="AI4" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AJ4" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2165,13 +2906,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2186,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2201,46 +2942,46 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="R5">
         <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="T5" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="W5" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="X5" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AA5" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2252,22 +2993,22 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AF5" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AG5" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AH5" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="AI5" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AJ5" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2275,13 +3016,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>60838324</v>
@@ -2296,10 +3037,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2311,43 +3052,43 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="Q6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="T6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="W6" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="X6" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Z6" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AA6" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2359,22 +3100,22 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AF6" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AG6" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AH6" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="AI6" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AJ6" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2382,13 +3123,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -2403,10 +3144,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -2418,46 +3159,46 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="R7">
         <v>11</v>
       </c>
       <c r="S7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="T7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="W7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="X7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AA7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -2469,22 +3210,22 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AF7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AG7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AH7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="AI7" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AJ7" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2492,13 +3233,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -2513,10 +3254,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -2528,43 +3269,43 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="Q8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="R8">
         <v>11</v>
       </c>
       <c r="S8" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="T8" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Z8" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AA8" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -2576,22 +3317,22 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AH8" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="AI8" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AJ8" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2599,13 +3340,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
@@ -2620,10 +3361,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -2635,46 +3376,46 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="Q9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="R9">
         <v>11</v>
       </c>
       <c r="S9" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="T9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AA9" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -2686,22 +3427,22 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AH9" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="AI9" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AJ9" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -2709,13 +3450,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <v>6161616161</v>
@@ -2730,10 +3471,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K10">
         <v>1994</v>
@@ -2745,43 +3486,43 @@
         <v>2003</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="R10">
         <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="T10" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="U10">
         <v>123456</v>
       </c>
       <c r="V10" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Z10" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AA10" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB10">
         <v>8280004</v>
@@ -2793,22 +3534,22 @@
         <v>852</v>
       </c>
       <c r="AE10" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AF10" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AH10" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="AI10" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AJ10" s="20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -2867,120 +3608,400 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
-  <dimension ref="A1:G10"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DA9465-D65E-42FE-A46F-FF16BA787C83}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{7D31272D-2D1B-4CAB-8FF1-2FC2E11757D8}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{3166C6E8-F5D5-49B4-9E63-43850082EC22}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{4797C837-4940-404B-9411-15AB55F4E816}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{D5303DED-4100-4196-A982-AE2B7B30AC86}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{422C76E8-5C89-4BF5-AC32-EAB34DFA103E}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{5DBFAE26-6266-4160-ADAD-B5F379DE2068}"/>
+    <hyperlink ref="B2:B4" r:id="rId7" xr:uid="{B759F360-B50C-403A-BE07-C991BF4C6EC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="B7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/KiehlsTestData.xlsx
+++ b/src/test/resources/Data/KiehlsTestData.xlsx
@@ -3,20 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11AC66D2-6868-4D33-A6E1-B74949CEF506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5983129-FD48-424E-A0C7-C8978AA15A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
     <sheet name="store_credentials" sheetId="2" r:id="rId2"/>
     <sheet name="ba_credentials" sheetId="3" r:id="rId3"/>
-    <sheet name="cms_configuration" sheetId="8" r:id="rId4"/>
+    <sheet name="cms_configuration" sheetId="10" r:id="rId4"/>
     <sheet name="data_configuration" sheetId="9" r:id="rId5"/>
-    <sheet name="custom_data" sheetId="5" r:id="rId6"/>
-    <sheet name="customer_testdata" sheetId="4" r:id="rId7"/>
-    <sheet name="member_data" sheetId="7" r:id="rId8"/>
-    <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId9"/>
+    <sheet name="customer_testdata" sheetId="4" r:id="rId6"/>
+    <sheet name="member_data" sheetId="7" r:id="rId7"/>
+    <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,25 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Manikandan Mohan</author>
-  </authors>
-  <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{3E719351-4A0D-400F-AF31-F5FD832B6719}">
-      <text>
-        <t xml:space="preserve">Page mode : 
-multi / single
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="186">
   <si>
     <t>segment</t>
   </si>
@@ -258,7 +240,7 @@
     <t>recycle</t>
   </si>
   <si>
-    <t>consultation_page_mode</t>
+    <t>consultation_multi_page</t>
   </si>
   <si>
     <t>product_reservation</t>
@@ -273,235 +255,277 @@
     <t>No</t>
   </si>
   <si>
-    <t>multi</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>search_0</t>
+  </si>
+  <si>
+    <t>search_1</t>
+  </si>
+  <si>
+    <t>search_2</t>
+  </si>
+  <si>
+    <t>search_3</t>
+  </si>
+  <si>
+    <t>search_4</t>
+  </si>
+  <si>
+    <t>Mars ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Lucid</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>mobile_number_rand</t>
+  </si>
+  <si>
+    <t>landline_number</t>
+  </si>
+  <si>
+    <t>dob_date</t>
+  </si>
+  <si>
+    <t>dob_month</t>
+  </si>
+  <si>
+    <t>dob_month_short</t>
+  </si>
+  <si>
+    <t>dob_year_1994</t>
+  </si>
+  <si>
+    <t>dob_year_2006</t>
+  </si>
+  <si>
+    <t>dob_year_2003</t>
+  </si>
+  <si>
+    <t>gender_male</t>
+  </si>
+  <si>
+    <t>gender_female</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>test_name</t>
+  </si>
+  <si>
+    <t>add_street_number</t>
+  </si>
+  <si>
+    <t>add_street_name</t>
+  </si>
+  <si>
+    <t>add_city_name</t>
+  </si>
+  <si>
+    <t>add_pincode</t>
+  </si>
+  <si>
+    <t>add_state_name</t>
+  </si>
+  <si>
+    <t>sample_text</t>
+  </si>
+  <si>
+    <t>sample_text_1</t>
+  </si>
+  <si>
+    <t>jp_mobile_number</t>
+  </si>
+  <si>
+    <t>katakana_first_name</t>
+  </si>
+  <si>
+    <t>katakana_last_name</t>
+  </si>
+  <si>
+    <t>jp_zipcode</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>customer_title</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>email_address2</t>
+  </si>
+  <si>
+    <t>email_address3</t>
+  </si>
+  <si>
+    <t>mars_id</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>TestMid</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>mraghuram19@gmail.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testStreet</t>
+  </si>
+  <si>
+    <t>testCity</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>テスター</t>
+  </si>
+  <si>
+    <t>サンプル</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Tourist</t>
+  </si>
+  <si>
+    <t>FE243</t>
+  </si>
+  <si>
+    <t>suzytoure@gmail.com</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>45CA0022781</t>
+  </si>
+  <si>
+    <t>テスタ</t>
+  </si>
+  <si>
+    <t>FE244</t>
+  </si>
+  <si>
+    <t>FE245</t>
+  </si>
+  <si>
+    <t>FE246</t>
+  </si>
+  <si>
+    <t>FE247</t>
+  </si>
+  <si>
+    <t>FE248</t>
+  </si>
+  <si>
+    <t>FE249</t>
+  </si>
+  <si>
+    <t>FE250</t>
+  </si>
+  <si>
+    <t>FE251</t>
+  </si>
+  <si>
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Mars ID</t>
-  </si>
-  <si>
-    <t>Lucid</t>
-  </si>
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>TH_national_id</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>mobile_number</t>
-  </si>
-  <si>
-    <t>mobile_number_rand</t>
-  </si>
-  <si>
-    <t>landline_number</t>
-  </si>
-  <si>
-    <t>dob_date</t>
-  </si>
-  <si>
-    <t>dob_month</t>
-  </si>
-  <si>
-    <t>dob_month_short</t>
-  </si>
-  <si>
-    <t>dob_year_1994</t>
-  </si>
-  <si>
-    <t>dob_year_2006</t>
-  </si>
-  <si>
-    <t>dob_year_2003</t>
-  </si>
-  <si>
-    <t>gender_male</t>
-  </si>
-  <si>
-    <t>gender_female</t>
-  </si>
-  <si>
-    <t>email_id</t>
-  </si>
-  <si>
-    <t>test_name</t>
-  </si>
-  <si>
-    <t>add_street_number</t>
-  </si>
-  <si>
-    <t>add_street_name</t>
-  </si>
-  <si>
-    <t>add_city_name</t>
-  </si>
-  <si>
-    <t>add_pincode</t>
-  </si>
-  <si>
-    <t>add_state_name</t>
-  </si>
-  <si>
-    <t>sample_text</t>
-  </si>
-  <si>
-    <t>sample_text_1</t>
-  </si>
-  <si>
-    <t>jp_mobile_number</t>
-  </si>
-  <si>
-    <t>katakana_first_name</t>
-  </si>
-  <si>
-    <t>katakana_last_name</t>
-  </si>
-  <si>
-    <t>jp_zipcode</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>area_code</t>
-  </si>
-  <si>
-    <t>customer_title</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>customer_type</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>email_address2</t>
-  </si>
-  <si>
-    <t>email_address3</t>
-  </si>
-  <si>
-    <t>mars_id</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>TestMid</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>mraghuram19@gmail.com</t>
-  </si>
-  <si>
-    <t>testStreet</t>
-  </si>
-  <si>
-    <t>testCity</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>テスター</t>
-  </si>
-  <si>
-    <t>サンプル</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Tourist</t>
-  </si>
-  <si>
-    <t>FE243</t>
-  </si>
-  <si>
-    <t>suzytoure@gmail.com</t>
-  </si>
-  <si>
-    <t>a@a.com</t>
-  </si>
-  <si>
-    <t>FE244</t>
-  </si>
-  <si>
-    <t>45CA0022781</t>
-  </si>
-  <si>
-    <t>FE245</t>
-  </si>
-  <si>
-    <t>FE246</t>
-  </si>
-  <si>
-    <t>FE247</t>
-  </si>
-  <si>
-    <t>FE248</t>
-  </si>
-  <si>
-    <t>FE249</t>
-  </si>
-  <si>
-    <t>FE250</t>
-  </si>
-  <si>
-    <t>FE251</t>
+    <t>Name_dashboard</t>
+  </si>
+  <si>
+    <t>Email_dashboard</t>
+  </si>
+  <si>
+    <t>Mobile Number_dashboard</t>
+  </si>
+  <si>
+    <t>First Name_dashboard</t>
+  </si>
+  <si>
+    <t>Last Name_dashboard</t>
+  </si>
+  <si>
+    <t>Mars ID_dashboard</t>
+  </si>
+  <si>
+    <t>Lucid_dashboard</t>
+  </si>
+  <si>
+    <t>Client Name_dashboard</t>
   </si>
   <si>
     <t>emptydatatest@gmail.com</t>
@@ -516,7 +540,10 @@
     <t>45WM6000403</t>
   </si>
   <si>
-    <t>C70000000055363</t>
+    <t>C70000000055715</t>
+  </si>
+  <si>
+    <t>45j50007894</t>
   </si>
   <si>
     <t>product1</t>
@@ -583,7 +610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,11 +683,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -712,9 +734,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -738,23 +760,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1177,7 +1187,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1408,7 +1418,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1626,25 +1636,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE936C67-D4ED-4EB5-BBEB-A1EFB6D93302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF98782C-951E-4B2E-B6A1-B9CAF999F47F}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
         <v>68</v>
@@ -1722,7 +1723,7 @@
         <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
         <v>68</v>
@@ -1736,7 +1737,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -1751,7 +1752,7 @@
         <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
         <v>68</v>
@@ -1765,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -1780,7 +1781,7 @@
         <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
         <v>67</v>
@@ -1800,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -1809,7 +1810,7 @@
         <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
         <v>68</v>
@@ -1838,7 +1839,7 @@
         <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
         <v>68</v>
@@ -1867,7 +1868,7 @@
         <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
@@ -1896,7 +1897,7 @@
         <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
         <v>68</v>
@@ -1925,7 +1926,7 @@
         <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
         <v>68</v>
@@ -1936,7 +1937,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1944,12 +1944,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87589F0-DF68-4174-AC70-DE8ED675C90A}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
@@ -1973,43 +1974,19 @@
       <c r="F1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2017,28 +1994,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2046,28 +2002,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2075,28 +2010,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2104,28 +2021,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2133,28 +2029,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2162,28 +2037,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2191,28 +2048,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2220,28 +2056,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2250,186 +2074,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E2D506-4548-4DC9-A70E-4B10405D5BF5}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="16">
-        <v>8548565948260</v>
-      </c>
-      <c r="B2" s="18">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="16">
-        <v>9450469853557</v>
-      </c>
-      <c r="B3" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="16">
-        <v>3948669967118</v>
-      </c>
-      <c r="B4" s="18">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" s="16">
-        <v>1059720392655</v>
-      </c>
-      <c r="B5" s="18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" s="16">
-        <v>6760625788811</v>
-      </c>
-      <c r="B6" s="18">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="16">
-        <v>9133812723983</v>
-      </c>
-      <c r="B7" s="18">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" s="16">
-        <v>2416335689653</v>
-      </c>
-      <c r="B8" s="18">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" s="16">
-        <v>5528237059081</v>
-      </c>
-      <c r="B9" s="18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" s="16">
-        <v>8310005688801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="16">
-        <v>2522400209610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75">
-      <c r="A12" s="16">
-        <v>8080396582252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75">
-      <c r="A13" s="16">
-        <v>3112996418968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75">
-      <c r="A14" s="16">
-        <v>7112759843145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75">
-      <c r="A15" s="16">
-        <v>4515849177246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75">
-      <c r="A16" s="16">
-        <v>7101053760872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="16">
-        <v>4365374204670</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" s="16">
-        <v>4389196704772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" s="16">
-        <v>6301024076195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75">
-      <c r="A20" s="16">
-        <v>2055217028820</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="16">
-        <v>8088310123596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="16">
-        <v>8531189940672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75">
-      <c r="A23" s="16">
-        <v>8585943805517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="16">
-        <v>3317827396986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="16">
-        <v>2871694312134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75">
-      <c r="A26" s="16">
-        <v>3740887733270</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
   <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2453,12 +2103,15 @@
     <col min="23" max="23" width="13.7109375" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
     <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" customWidth="1"/>
     <col min="29" max="29" width="13.85546875" customWidth="1"/>
     <col min="30" max="30" width="10" customWidth="1"/>
     <col min="31" max="31" width="14.5703125" customWidth="1"/>
     <col min="32" max="32" width="13.5703125" customWidth="1"/>
     <col min="33" max="33" width="14.5703125" customWidth="1"/>
     <col min="34" max="34" width="17.42578125" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" customWidth="1"/>
+    <col min="36" max="36" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1">
@@ -2466,112 +2119,112 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -2579,13 +2232,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -2600,10 +2253,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -2615,43 +2268,46 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="R2">
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="X2" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="Y2">
+        <v>720123</v>
       </c>
       <c r="Z2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -2663,22 +2319,25 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2686,13 +2345,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -2707,10 +2366,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -2722,46 +2381,46 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="R3">
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="X3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="AA3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -2773,25 +2432,25 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ3" s="20" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="AK3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2799,13 +2458,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2820,10 +2479,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2835,43 +2494,46 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="X4" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="Y4">
+        <v>720123</v>
       </c>
       <c r="Z4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2883,22 +2545,25 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI4" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ4" s="20" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2906,13 +2571,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2927,10 +2592,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2942,46 +2607,46 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="R5">
         <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="X5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2993,22 +2658,25 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI5" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="AI5" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ5" s="20" t="s">
-        <v>136</v>
+      <c r="AJ5" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -3016,13 +2684,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E6">
         <v>60838324</v>
@@ -3037,10 +2705,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -3052,43 +2720,46 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q6" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="X6" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="Y6">
+        <v>720123</v>
       </c>
       <c r="Z6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -3100,22 +2771,25 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK6" t="s">
         <v>141</v>
-      </c>
-      <c r="AI6" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ6" s="20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -3123,13 +2797,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -3144,10 +2818,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -3159,46 +2833,46 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="R7">
         <v>11</v>
       </c>
       <c r="S7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="X7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -3210,22 +2884,25 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI7" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ7" s="20" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="AI7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -3233,13 +2910,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -3254,10 +2931,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -3269,43 +2946,46 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="R8">
         <v>11</v>
       </c>
       <c r="S8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="X8" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="Y8">
+        <v>720123</v>
       </c>
       <c r="Z8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -3317,22 +2997,25 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI8" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ8" s="20" t="s">
-        <v>136</v>
+        <v>148</v>
+      </c>
+      <c r="AI8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -3340,18 +3023,18 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <v>88834</v>
       </c>
       <c r="G9">
@@ -3361,10 +3044,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -3376,46 +3059,46 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="R9">
         <v>11</v>
       </c>
       <c r="S9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="X9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -3427,22 +3110,25 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH9" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI9" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ9" s="20" t="s">
-        <v>136</v>
+        <v>149</v>
+      </c>
+      <c r="AI9" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ9" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -3450,13 +3136,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E10">
         <v>6161616161</v>
@@ -3471,10 +3157,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K10">
         <v>1994</v>
@@ -3486,43 +3172,46 @@
         <v>2003</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="R10">
         <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U10">
         <v>123456</v>
       </c>
       <c r="V10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="Y10">
+        <v>720123</v>
       </c>
       <c r="Z10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB10">
         <v>8280004</v>
@@ -3534,22 +3223,25 @@
         <v>852</v>
       </c>
       <c r="AE10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AH10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI10" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ10" s="20" t="s">
-        <v>136</v>
+        <v>150</v>
+      </c>
+      <c r="AI10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -3608,12 +3300,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DA9465-D65E-42FE-A46F-FF16BA787C83}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3625,245 +3317,422 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
+      <c r="J1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>146</v>
+      <c r="B2" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+        <v>119</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>146</v>
+      <c r="B3" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+        <v>119</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>146</v>
+      <c r="B4" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" t="s">
+        <v>141</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+        <v>119</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>146</v>
+      <c r="B5" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+        <v>119</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>146</v>
+      <c r="B6" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+        <v>119</v>
+      </c>
+      <c r="J6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>146</v>
+      <c r="B7" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
+        <v>119</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>146</v>
+      <c r="B8" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+        <v>119</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N8" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>146</v>
+      <c r="B9" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+        <v>119</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>146</v>
+      <c r="B10" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" t="s">
+        <v>161</v>
+      </c>
+      <c r="N10" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3875,16 +3744,23 @@
     <hyperlink ref="B7" r:id="rId5" xr:uid="{422C76E8-5C89-4BF5-AC32-EAB34DFA103E}"/>
     <hyperlink ref="B9" r:id="rId6" xr:uid="{5DBFAE26-6266-4160-ADAD-B5F379DE2068}"/>
     <hyperlink ref="B2:B4" r:id="rId7" xr:uid="{B759F360-B50C-403A-BE07-C991BF4C6EC5}"/>
+    <hyperlink ref="K6" r:id="rId8" xr:uid="{FF1B4ED6-6770-4B9F-A63D-14DC9E48765F}"/>
+    <hyperlink ref="K5" r:id="rId9" xr:uid="{CBF5D559-38A6-48EE-9144-DE8544B6CCA3}"/>
+    <hyperlink ref="K8" r:id="rId10" xr:uid="{555FF862-D70A-4B29-BC93-7BFFF3A5262E}"/>
+    <hyperlink ref="K10" r:id="rId11" xr:uid="{1BD8FF11-1E3E-4BFF-A620-E7E6A929AEE8}"/>
+    <hyperlink ref="K7" r:id="rId12" xr:uid="{9C0D7AE6-7EC3-458F-B4F6-881B7422FD8F}"/>
+    <hyperlink ref="K9" r:id="rId13" xr:uid="{63414790-66DC-4EBD-99D5-384A89C1E144}"/>
+    <hyperlink ref="K2:K4" r:id="rId14" xr:uid="{9DABB6DF-BAFB-4FDB-8152-5AB31B5FD4DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3899,10 +3775,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3910,10 +3786,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3921,10 +3797,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3932,10 +3808,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3943,10 +3819,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3954,21 +3830,21 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>163</v>
+      <c r="B7" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3976,10 +3852,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3987,10 +3863,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3998,10 +3874,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/KiehlsTestData.xlsx
+++ b/src/test/resources/Data/KiehlsTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26415"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5983129-FD48-424E-A0C7-C8978AA15A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F486FC2-EED7-4DB0-AB9B-55FFEC908D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="190">
   <si>
     <t>segment</t>
   </si>
@@ -249,6 +249,9 @@
     <t>welcome_popup</t>
   </si>
   <si>
+    <t>consultation</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -279,231 +282,234 @@
     <t>First Name</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Lucid</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>mobile_number_rand</t>
+  </si>
+  <si>
+    <t>landline_number</t>
+  </si>
+  <si>
+    <t>dob_date</t>
+  </si>
+  <si>
+    <t>dob_month</t>
+  </si>
+  <si>
+    <t>dob_month_short</t>
+  </si>
+  <si>
+    <t>dob_year_1994</t>
+  </si>
+  <si>
+    <t>dob_year_2006</t>
+  </si>
+  <si>
+    <t>dob_year_2003</t>
+  </si>
+  <si>
+    <t>gender_male</t>
+  </si>
+  <si>
+    <t>gender_female</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>test_name</t>
+  </si>
+  <si>
+    <t>add_street_number</t>
+  </si>
+  <si>
+    <t>add_street_name</t>
+  </si>
+  <si>
+    <t>add_city_name</t>
+  </si>
+  <si>
+    <t>add_pincode</t>
+  </si>
+  <si>
+    <t>add_state_name</t>
+  </si>
+  <si>
+    <t>sample_text</t>
+  </si>
+  <si>
+    <t>sample_text_1</t>
+  </si>
+  <si>
+    <t>jp_mobile_number</t>
+  </si>
+  <si>
+    <t>katakana_first_name</t>
+  </si>
+  <si>
+    <t>katakana_last_name</t>
+  </si>
+  <si>
+    <t>jp_zipcode</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>customer_title</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>email_address2</t>
+  </si>
+  <si>
+    <t>email_address3</t>
+  </si>
+  <si>
+    <t>mars_id</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>TestMid</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>mraghuram19@gmail.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testStreet</t>
+  </si>
+  <si>
+    <t>testCity</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>テスター</t>
+  </si>
+  <si>
+    <t>サンプル</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Tourist</t>
+  </si>
+  <si>
+    <t>FE243</t>
+  </si>
+  <si>
+    <t>suzytoure@gmail.com</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>45CA0022781</t>
+  </si>
+  <si>
+    <t>テスタ</t>
+  </si>
+  <si>
+    <t>FE244</t>
+  </si>
+  <si>
+    <t>FE245</t>
+  </si>
+  <si>
+    <t>FE246</t>
+  </si>
+  <si>
+    <t>FE247</t>
+  </si>
+  <si>
+    <t>FE248</t>
+  </si>
+  <si>
+    <t>FE249</t>
+  </si>
+  <si>
+    <t>FE250</t>
+  </si>
+  <si>
+    <t>FE251</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Lucid</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>mobile_number</t>
-  </si>
-  <si>
-    <t>mobile_number_rand</t>
-  </si>
-  <si>
-    <t>landline_number</t>
-  </si>
-  <si>
-    <t>dob_date</t>
-  </si>
-  <si>
-    <t>dob_month</t>
-  </si>
-  <si>
-    <t>dob_month_short</t>
-  </si>
-  <si>
-    <t>dob_year_1994</t>
-  </si>
-  <si>
-    <t>dob_year_2006</t>
-  </si>
-  <si>
-    <t>dob_year_2003</t>
-  </si>
-  <si>
-    <t>gender_male</t>
-  </si>
-  <si>
-    <t>gender_female</t>
-  </si>
-  <si>
-    <t>email_id</t>
-  </si>
-  <si>
-    <t>test_name</t>
-  </si>
-  <si>
-    <t>add_street_number</t>
-  </si>
-  <si>
-    <t>add_street_name</t>
-  </si>
-  <si>
-    <t>add_city_name</t>
-  </si>
-  <si>
-    <t>add_pincode</t>
-  </si>
-  <si>
-    <t>add_state_name</t>
-  </si>
-  <si>
-    <t>sample_text</t>
-  </si>
-  <si>
-    <t>sample_text_1</t>
-  </si>
-  <si>
-    <t>jp_mobile_number</t>
-  </si>
-  <si>
-    <t>katakana_first_name</t>
-  </si>
-  <si>
-    <t>katakana_last_name</t>
-  </si>
-  <si>
-    <t>jp_zipcode</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>area_code</t>
-  </si>
-  <si>
-    <t>customer_title</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>customer_type</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>email_address2</t>
-  </si>
-  <si>
-    <t>email_address3</t>
-  </si>
-  <si>
-    <t>mars_id</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>TestMid</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>mraghuram19@gmail.com</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testStreet</t>
-  </si>
-  <si>
-    <t>testCity</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>テスター</t>
-  </si>
-  <si>
-    <t>サンプル</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Tourist</t>
-  </si>
-  <si>
-    <t>FE243</t>
-  </si>
-  <si>
-    <t>suzytoure@gmail.com</t>
-  </si>
-  <si>
-    <t>a@a.com</t>
-  </si>
-  <si>
-    <t>45CA0022781</t>
-  </si>
-  <si>
-    <t>テスタ</t>
-  </si>
-  <si>
-    <t>FE244</t>
-  </si>
-  <si>
-    <t>FE245</t>
-  </si>
-  <si>
-    <t>FE246</t>
-  </si>
-  <si>
-    <t>FE247</t>
-  </si>
-  <si>
-    <t>FE248</t>
-  </si>
-  <si>
-    <t>FE249</t>
-  </si>
-  <si>
-    <t>FE250</t>
-  </si>
-  <si>
-    <t>FE251</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>Name_dashboard</t>
   </si>
   <si>
@@ -540,10 +546,16 @@
     <t>45WM6000403</t>
   </si>
   <si>
+    <t>51B90005394</t>
+  </si>
+  <si>
     <t>C70000000055715</t>
   </si>
   <si>
     <t>45j50007894</t>
+  </si>
+  <si>
+    <t>453L0803539</t>
   </si>
   <si>
     <t>product1</t>
@@ -709,7 +721,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +731,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,6 +783,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1187,7 +1206,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1418,7 +1437,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1637,15 +1656,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF98782C-951E-4B2E-B6A1-B9CAF999F47F}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1673,266 +1702,296 @@
       <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>67</v>
+      <c r="B6" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1944,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87589F0-DF68-4174-AC70-DE8ED675C90A}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1960,19 +2019,19 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1983,10 +2042,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1994,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2013,7 +2072,7 @@
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2023,6 +2082,9 @@
       <c r="B6" t="s">
         <v>80</v>
       </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
@@ -2040,7 +2102,7 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2059,13 +2121,13 @@
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2077,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
   <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2119,112 +2181,112 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -2232,13 +2294,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -2253,10 +2315,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -2268,46 +2330,46 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R2">
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y2">
         <v>720123</v>
       </c>
       <c r="Z2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -2319,25 +2381,25 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AI2" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2345,13 +2407,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -2366,10 +2428,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -2381,46 +2443,46 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R3">
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -2432,25 +2494,25 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI3" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ3" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2458,13 +2520,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2479,10 +2541,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2494,46 +2556,46 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y4">
         <v>720123</v>
       </c>
       <c r="Z4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2545,25 +2607,25 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI4" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ4" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2571,13 +2633,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2592,10 +2654,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2607,46 +2669,46 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R5">
         <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2658,25 +2720,25 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ5" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2684,16 +2746,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6">
-        <v>60838324</v>
+        <v>90838324</v>
       </c>
       <c r="F6">
         <v>98765</v>
@@ -2705,10 +2767,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2720,46 +2782,46 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y6">
         <v>720123</v>
       </c>
       <c r="Z6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2771,25 +2833,25 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI6" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2797,13 +2859,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -2818,10 +2880,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -2833,46 +2895,46 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R7">
         <v>11</v>
       </c>
       <c r="S7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -2884,25 +2946,25 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI7" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2910,13 +2972,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -2931,10 +2993,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -2946,46 +3008,46 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R8">
         <v>11</v>
       </c>
       <c r="S8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y8">
         <v>720123</v>
       </c>
       <c r="Z8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -2997,25 +3059,25 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI8" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ8" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -3023,13 +3085,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
@@ -3044,10 +3106,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -3059,46 +3121,46 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R9">
         <v>11</v>
       </c>
       <c r="S9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -3110,25 +3172,25 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -3136,13 +3198,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10">
         <v>6161616161</v>
@@ -3157,10 +3219,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10">
         <v>1994</v>
@@ -3172,46 +3234,46 @@
         <v>2003</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R10">
         <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U10">
         <v>123456</v>
       </c>
       <c r="V10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y10">
         <v>720123</v>
       </c>
       <c r="Z10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB10">
         <v>8280004</v>
@@ -3223,25 +3285,25 @@
         <v>852</v>
       </c>
       <c r="AE10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AI10" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ10" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -3304,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DA9465-D65E-42FE-A46F-FF16BA787C83}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3320,6 +3382,8 @@
     <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="15" max="15" width="18.5703125" customWidth="1"/>
     <col min="16" max="16" width="22.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
@@ -3330,16 +3394,16 @@
         <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>80</v>
@@ -3348,31 +3412,31 @@
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75">
@@ -3380,81 +3444,81 @@
         <v>8</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="M2" t="s">
         <v>163</v>
       </c>
-      <c r="H2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="M2" t="s">
-        <v>161</v>
-      </c>
       <c r="N2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" t="s">
         <v>163</v>
       </c>
-      <c r="Q2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="M3" t="s">
         <v>163</v>
       </c>
-      <c r="G3" t="s">
+      <c r="N3" t="s">
         <v>164</v>
       </c>
-      <c r="H3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" t="s">
-        <v>161</v>
-      </c>
-      <c r="N3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q3" t="s">
         <v>163</v>
-      </c>
-      <c r="P3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75">
@@ -3462,43 +3526,43 @@
         <v>10</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="M4" t="s">
         <v>163</v>
       </c>
-      <c r="G4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" t="s">
-        <v>161</v>
-      </c>
       <c r="N4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" t="s">
         <v>163</v>
-      </c>
-      <c r="P4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75">
@@ -3506,40 +3570,40 @@
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="M5" t="s">
         <v>163</v>
       </c>
-      <c r="G5" t="s">
+      <c r="N5" t="s">
         <v>164</v>
       </c>
-      <c r="H5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="M5" t="s">
-        <v>161</v>
-      </c>
-      <c r="N5" t="s">
-        <v>162</v>
-      </c>
       <c r="O5" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q5" t="s">
         <v>163</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3547,40 +3611,40 @@
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F6" t="s">
+      <c r="M6" t="s">
         <v>163</v>
       </c>
-      <c r="H6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="M6" t="s">
-        <v>161</v>
-      </c>
-      <c r="N6" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>163</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75">
@@ -3588,37 +3652,37 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="M7" t="s">
         <v>163</v>
       </c>
-      <c r="H7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="M7" t="s">
-        <v>161</v>
-      </c>
       <c r="N7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75">
@@ -3626,37 +3690,37 @@
         <v>14</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="M8" t="s">
         <v>163</v>
       </c>
-      <c r="H8" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" t="s">
-        <v>161</v>
-      </c>
       <c r="N8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q8" t="s">
         <v>163</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75">
@@ -3664,37 +3728,37 @@
         <v>16</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="M9" t="s">
         <v>163</v>
       </c>
-      <c r="H9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" t="s">
-        <v>161</v>
-      </c>
       <c r="N9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O9" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9" t="s">
         <v>163</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75">
@@ -3702,37 +3766,37 @@
         <v>18</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="M10" t="s">
         <v>163</v>
       </c>
-      <c r="H10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="M10" t="s">
-        <v>161</v>
-      </c>
       <c r="N10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q10" t="s">
         <v>163</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3775,10 +3839,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3786,10 +3850,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3797,10 +3861,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3808,10 +3872,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3819,10 +3883,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3830,10 +3894,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3841,10 +3905,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3852,10 +3916,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3863,10 +3927,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3874,10 +3938,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/KiehlsTestData.xlsx
+++ b/src/test/resources/Data/KiehlsTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F486FC2-EED7-4DB0-AB9B-55FFEC908D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03473D0F-224D-472C-B5B0-5727B96A1ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -252,15 +252,12 @@
     <t>consultation</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>search_0</t>
   </si>
   <si>
@@ -541,6 +538,9 @@
   </si>
   <si>
     <t>Empty</t>
+  </si>
+  <si>
+    <t>45H10041658</t>
   </si>
   <si>
     <t>45WM6000403</t>
@@ -721,7 +721,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,12 +731,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -783,7 +777,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1206,7 +1199,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1437,7 +1430,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1658,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF98782C-951E-4B2E-B6A1-B9CAF999F47F}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1717,22 +1710,22 @@
         <v>68</v>
       </c>
       <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
       </c>
       <c r="J2" t="s">
         <v>68</v>
@@ -1743,31 +1736,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
-      </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1775,28 +1768,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
       </c>
       <c r="J4" t="s">
         <v>68</v>
@@ -1807,60 +1800,60 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>69</v>
+      <c r="J5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
       </c>
       <c r="J6" t="s">
         <v>68</v>
@@ -1871,31 +1864,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1906,25 +1899,25 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
         <v>69</v>
       </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
         <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
       </c>
       <c r="J8" t="s">
         <v>68</v>
@@ -1938,25 +1931,25 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
       <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
         <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
       </c>
       <c r="J9" t="s">
         <v>68</v>
@@ -1970,25 +1963,25 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
       </c>
       <c r="J10" t="s">
         <v>68</v>
@@ -2003,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87589F0-DF68-4174-AC70-DE8ED675C90A}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2019,19 +2012,19 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2042,10 +2035,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2053,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2061,7 +2054,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2069,10 +2062,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2080,10 +2073,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2091,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2099,10 +2092,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2110,7 +2103,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2118,16 +2111,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2181,112 +2174,112 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -2294,13 +2287,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -2315,10 +2308,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
         <v>123</v>
-      </c>
-      <c r="J2" t="s">
-        <v>124</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -2330,46 +2323,46 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" t="s">
         <v>125</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>126</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>127</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>128</v>
       </c>
       <c r="R2">
         <v>11</v>
       </c>
       <c r="S2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" t="s">
         <v>129</v>
-      </c>
-      <c r="T2" t="s">
-        <v>130</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
+        <v>130</v>
+      </c>
+      <c r="W2" t="s">
         <v>131</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>132</v>
-      </c>
-      <c r="X2" t="s">
-        <v>133</v>
       </c>
       <c r="Y2">
         <v>720123</v>
       </c>
       <c r="Z2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA2" t="s">
         <v>134</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>135</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -2381,25 +2374,25 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF2" t="s">
         <v>136</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>137</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>138</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AJ2" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AK2" t="s">
         <v>141</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2407,13 +2400,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -2428,10 +2421,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" t="s">
         <v>123</v>
-      </c>
-      <c r="J3" t="s">
-        <v>124</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -2443,46 +2436,46 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" t="s">
         <v>125</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>126</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>127</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>128</v>
       </c>
       <c r="R3">
         <v>11</v>
       </c>
       <c r="S3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" t="s">
         <v>129</v>
-      </c>
-      <c r="T3" t="s">
-        <v>130</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" t="s">
         <v>131</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>132</v>
-      </c>
-      <c r="X3" t="s">
-        <v>133</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -2494,25 +2487,25 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF3" t="s">
         <v>136</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>137</v>
       </c>
-      <c r="AG3" t="s">
-        <v>138</v>
-      </c>
       <c r="AH3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI3" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK3" t="s">
         <v>141</v>
-      </c>
-      <c r="AJ3" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2520,13 +2513,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
         <v>120</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2541,10 +2534,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" t="s">
         <v>123</v>
-      </c>
-      <c r="J4" t="s">
-        <v>124</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2556,46 +2549,46 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" t="s">
         <v>125</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>126</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>127</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>128</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" t="s">
         <v>129</v>
-      </c>
-      <c r="T4" t="s">
-        <v>130</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" t="s">
         <v>131</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>132</v>
-      </c>
-      <c r="X4" t="s">
-        <v>133</v>
       </c>
       <c r="Y4">
         <v>720123</v>
       </c>
       <c r="Z4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA4" t="s">
         <v>134</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>135</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2607,25 +2600,25 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF4" t="s">
         <v>136</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>137</v>
       </c>
-      <c r="AG4" t="s">
-        <v>138</v>
-      </c>
       <c r="AH4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK4" t="s">
         <v>141</v>
-      </c>
-      <c r="AJ4" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2633,13 +2626,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
         <v>120</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>121</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2654,10 +2647,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" t="s">
         <v>123</v>
-      </c>
-      <c r="J5" t="s">
-        <v>124</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2669,46 +2662,46 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" t="s">
         <v>125</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>126</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>127</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>128</v>
       </c>
       <c r="R5">
         <v>11</v>
       </c>
       <c r="S5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T5" t="s">
         <v>129</v>
-      </c>
-      <c r="T5" t="s">
-        <v>130</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W5" t="s">
         <v>131</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>132</v>
-      </c>
-      <c r="X5" t="s">
-        <v>133</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA5" t="s">
         <v>134</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>135</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2720,25 +2713,25 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF5" t="s">
         <v>136</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>137</v>
       </c>
-      <c r="AG5" t="s">
-        <v>138</v>
-      </c>
       <c r="AH5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AI5" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ5" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK5" t="s">
         <v>141</v>
-      </c>
-      <c r="AJ5" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2746,13 +2739,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
         <v>120</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
       <c r="E6">
         <v>90838324</v>
@@ -2767,10 +2760,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" t="s">
         <v>123</v>
-      </c>
-      <c r="J6" t="s">
-        <v>124</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2782,46 +2775,46 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" t="s">
         <v>125</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>126</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>127</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>128</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" t="s">
         <v>129</v>
-      </c>
-      <c r="T6" t="s">
-        <v>130</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
+        <v>130</v>
+      </c>
+      <c r="W6" t="s">
         <v>131</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>132</v>
-      </c>
-      <c r="X6" t="s">
-        <v>133</v>
       </c>
       <c r="Y6">
         <v>720123</v>
       </c>
       <c r="Z6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA6" t="s">
         <v>134</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>135</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2833,25 +2826,25 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF6" t="s">
         <v>136</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>137</v>
       </c>
-      <c r="AG6" t="s">
-        <v>138</v>
-      </c>
       <c r="AH6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK6" t="s">
         <v>141</v>
-      </c>
-      <c r="AJ6" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2859,13 +2852,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
         <v>120</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>121</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -2880,10 +2873,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
         <v>123</v>
-      </c>
-      <c r="J7" t="s">
-        <v>124</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -2895,46 +2888,46 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" t="s">
         <v>125</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>126</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>128</v>
       </c>
       <c r="R7">
         <v>11</v>
       </c>
       <c r="S7" t="s">
+        <v>128</v>
+      </c>
+      <c r="T7" t="s">
         <v>129</v>
-      </c>
-      <c r="T7" t="s">
-        <v>130</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W7" t="s">
         <v>131</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>132</v>
-      </c>
-      <c r="X7" t="s">
-        <v>133</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA7" t="s">
         <v>134</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>135</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -2946,25 +2939,25 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF7" t="s">
         <v>136</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>137</v>
       </c>
-      <c r="AG7" t="s">
-        <v>138</v>
-      </c>
       <c r="AH7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK7" t="s">
         <v>141</v>
-      </c>
-      <c r="AJ7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2972,13 +2965,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
         <v>120</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>121</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -2993,10 +2986,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" t="s">
         <v>123</v>
-      </c>
-      <c r="J8" t="s">
-        <v>124</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -3008,46 +3001,46 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O8" t="s">
         <v>125</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>126</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>127</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>128</v>
       </c>
       <c r="R8">
         <v>11</v>
       </c>
       <c r="S8" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" t="s">
         <v>129</v>
-      </c>
-      <c r="T8" t="s">
-        <v>130</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
+        <v>130</v>
+      </c>
+      <c r="W8" t="s">
         <v>131</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>132</v>
-      </c>
-      <c r="X8" t="s">
-        <v>133</v>
       </c>
       <c r="Y8">
         <v>720123</v>
       </c>
       <c r="Z8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA8" t="s">
         <v>134</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>135</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -3059,25 +3052,25 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF8" t="s">
         <v>136</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>137</v>
       </c>
-      <c r="AG8" t="s">
-        <v>138</v>
-      </c>
       <c r="AH8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK8" t="s">
         <v>141</v>
-      </c>
-      <c r="AJ8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -3085,13 +3078,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
         <v>120</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>121</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
@@ -3106,10 +3099,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="s">
         <v>123</v>
-      </c>
-      <c r="J9" t="s">
-        <v>124</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -3121,46 +3114,46 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" t="s">
         <v>125</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>126</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>127</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>128</v>
       </c>
       <c r="R9">
         <v>11</v>
       </c>
       <c r="S9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T9" t="s">
         <v>129</v>
-      </c>
-      <c r="T9" t="s">
-        <v>130</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
+        <v>130</v>
+      </c>
+      <c r="W9" t="s">
         <v>131</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>132</v>
-      </c>
-      <c r="X9" t="s">
-        <v>133</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA9" t="s">
         <v>134</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>135</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -3172,25 +3165,25 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF9" t="s">
         <v>136</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>137</v>
       </c>
-      <c r="AG9" t="s">
-        <v>138</v>
-      </c>
       <c r="AH9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI9" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ9" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK9" t="s">
         <v>141</v>
-      </c>
-      <c r="AJ9" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -3198,13 +3191,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>121</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
       <c r="E10">
         <v>6161616161</v>
@@ -3219,10 +3212,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
         <v>123</v>
-      </c>
-      <c r="J10" t="s">
-        <v>124</v>
       </c>
       <c r="K10">
         <v>1994</v>
@@ -3234,46 +3227,46 @@
         <v>2003</v>
       </c>
       <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
         <v>125</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>126</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>127</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>128</v>
       </c>
       <c r="R10">
         <v>11</v>
       </c>
       <c r="S10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" t="s">
         <v>129</v>
-      </c>
-      <c r="T10" t="s">
-        <v>130</v>
       </c>
       <c r="U10">
         <v>123456</v>
       </c>
       <c r="V10" t="s">
+        <v>130</v>
+      </c>
+      <c r="W10" t="s">
         <v>131</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>132</v>
-      </c>
-      <c r="X10" t="s">
-        <v>133</v>
       </c>
       <c r="Y10">
         <v>720123</v>
       </c>
       <c r="Z10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA10" t="s">
         <v>134</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>135</v>
       </c>
       <c r="AB10">
         <v>8280004</v>
@@ -3285,25 +3278,25 @@
         <v>852</v>
       </c>
       <c r="AE10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF10" t="s">
         <v>136</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>137</v>
       </c>
-      <c r="AG10" t="s">
-        <v>138</v>
-      </c>
       <c r="AH10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AI10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK10" t="s">
         <v>141</v>
-      </c>
-      <c r="AJ10" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -3367,7 +3360,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3391,52 +3384,52 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75">
@@ -3444,37 +3437,37 @@
         <v>8</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>165</v>
-      </c>
       <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
         <v>163</v>
-      </c>
-      <c r="I2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N2" t="s">
-        <v>164</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>165</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3482,13 +3475,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" t="s">
         <v>162</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>163</v>
-      </c>
-      <c r="E3" t="s">
-        <v>164</v>
       </c>
       <c r="F3" t="s">
         <v>166</v>
@@ -3497,19 +3490,19 @@
         <v>167</v>
       </c>
       <c r="H3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
         <v>163</v>
-      </c>
-      <c r="I3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="M3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N3" t="s">
-        <v>164</v>
       </c>
       <c r="O3" t="s">
         <v>166</v>
@@ -3518,7 +3511,7 @@
         <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75">
@@ -3526,34 +3519,34 @@
         <v>10</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" t="s">
         <v>162</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>163</v>
-      </c>
-      <c r="E4" t="s">
-        <v>164</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" t="s">
         <v>163</v>
-      </c>
-      <c r="I4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4" t="s">
-        <v>163</v>
-      </c>
-      <c r="N4" t="s">
-        <v>164</v>
       </c>
       <c r="O4" s="18" t="s">
         <v>165</v>
@@ -3562,7 +3555,7 @@
         <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75">
@@ -3570,13 +3563,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
         <v>162</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>163</v>
-      </c>
-      <c r="E5" t="s">
-        <v>164</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>165</v>
@@ -3585,25 +3578,25 @@
         <v>167</v>
       </c>
       <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" t="s">
         <v>163</v>
-      </c>
-      <c r="I5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="M5" t="s">
-        <v>163</v>
-      </c>
-      <c r="N5" t="s">
-        <v>164</v>
       </c>
       <c r="O5" s="18" t="s">
         <v>165</v>
       </c>
       <c r="Q5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3611,40 +3604,40 @@
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" t="s">
         <v>162</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>163</v>
-      </c>
-      <c r="E6" t="s">
-        <v>164</v>
       </c>
       <c r="F6" t="s">
         <v>165</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
         <v>168</v>
       </c>
       <c r="K6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" t="s">
         <v>162</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>163</v>
-      </c>
-      <c r="N6" t="s">
-        <v>164</v>
       </c>
       <c r="O6" t="s">
         <v>165</v>
       </c>
       <c r="Q6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75">
@@ -3652,37 +3645,37 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
         <v>162</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>163</v>
-      </c>
-      <c r="E7" t="s">
-        <v>164</v>
       </c>
       <c r="F7" t="s">
         <v>169</v>
       </c>
       <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" t="s">
         <v>163</v>
-      </c>
-      <c r="I7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="M7" t="s">
-        <v>163</v>
-      </c>
-      <c r="N7" t="s">
-        <v>164</v>
       </c>
       <c r="O7" s="18" t="s">
         <v>165</v>
       </c>
       <c r="Q7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75">
@@ -3690,37 +3683,37 @@
         <v>14</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
         <v>162</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>163</v>
-      </c>
-      <c r="E8" t="s">
-        <v>164</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>165</v>
       </c>
       <c r="H8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" t="s">
         <v>163</v>
-      </c>
-      <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="M8" t="s">
-        <v>163</v>
-      </c>
-      <c r="N8" t="s">
-        <v>164</v>
       </c>
       <c r="O8" s="18" t="s">
         <v>165</v>
       </c>
       <c r="Q8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75">
@@ -3728,37 +3721,37 @@
         <v>16</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
         <v>162</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>163</v>
-      </c>
-      <c r="E9" t="s">
-        <v>164</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>165</v>
       </c>
       <c r="H9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" t="s">
         <v>163</v>
-      </c>
-      <c r="I9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="M9" t="s">
-        <v>163</v>
-      </c>
-      <c r="N9" t="s">
-        <v>164</v>
       </c>
       <c r="O9" s="18" t="s">
         <v>165</v>
       </c>
       <c r="Q9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75">
@@ -3766,37 +3759,37 @@
         <v>18</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" t="s">
         <v>162</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>163</v>
-      </c>
-      <c r="E10" t="s">
-        <v>164</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>165</v>
       </c>
       <c r="H10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" t="s">
         <v>163</v>
-      </c>
-      <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" t="s">
-        <v>163</v>
-      </c>
-      <c r="N10" t="s">
-        <v>164</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>165</v>
       </c>
       <c r="Q10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/KiehlsTestData.xlsx
+++ b/src/test/resources/Data/KiehlsTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03473D0F-224D-472C-B5B0-5727B96A1ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE59CDD8-C6EB-452B-AE94-53D3CF3C6E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="191">
   <si>
     <t>segment</t>
   </si>
@@ -282,228 +282,228 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Lucid</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>mobile_number_rand</t>
+  </si>
+  <si>
+    <t>landline_number</t>
+  </si>
+  <si>
+    <t>dob_date</t>
+  </si>
+  <si>
+    <t>dob_month</t>
+  </si>
+  <si>
+    <t>dob_month_short</t>
+  </si>
+  <si>
+    <t>dob_year_1994</t>
+  </si>
+  <si>
+    <t>dob_year_2006</t>
+  </si>
+  <si>
+    <t>dob_year_2003</t>
+  </si>
+  <si>
+    <t>gender_male</t>
+  </si>
+  <si>
+    <t>gender_female</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>test_name</t>
+  </si>
+  <si>
+    <t>add_street_number</t>
+  </si>
+  <si>
+    <t>add_street_name</t>
+  </si>
+  <si>
+    <t>add_city_name</t>
+  </si>
+  <si>
+    <t>add_pincode</t>
+  </si>
+  <si>
+    <t>add_state_name</t>
+  </si>
+  <si>
+    <t>sample_text</t>
+  </si>
+  <si>
+    <t>sample_text_1</t>
+  </si>
+  <si>
+    <t>jp_mobile_number</t>
+  </si>
+  <si>
+    <t>katakana_first_name</t>
+  </si>
+  <si>
+    <t>katakana_last_name</t>
+  </si>
+  <si>
+    <t>jp_zipcode</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>customer_title</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>email_address2</t>
+  </si>
+  <si>
+    <t>email_address3</t>
+  </si>
+  <si>
+    <t>mars_id</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>TestMid</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>mraghuram19@gmail.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testStreet</t>
+  </si>
+  <si>
+    <t>testCity</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>テスター</t>
+  </si>
+  <si>
+    <t>サンプル</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Tourist</t>
+  </si>
+  <si>
+    <t>FE243</t>
+  </si>
+  <si>
+    <t>suzytoure@gmail.com</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>45CA0022781</t>
+  </si>
+  <si>
+    <t>テスタ</t>
+  </si>
+  <si>
+    <t>FE244</t>
+  </si>
+  <si>
+    <t>FE245</t>
+  </si>
+  <si>
+    <t>FE246</t>
+  </si>
+  <si>
+    <t>FE247</t>
+  </si>
+  <si>
+    <t>FE248</t>
+  </si>
+  <si>
+    <t>FE249</t>
+  </si>
+  <si>
+    <t>FE250</t>
+  </si>
+  <si>
+    <t>FE251</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
     <t>Client Name</t>
   </si>
   <si>
-    <t>Lucid</t>
-  </si>
-  <si>
-    <t>名前（名）</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>mobile_number</t>
-  </si>
-  <si>
-    <t>mobile_number_rand</t>
-  </si>
-  <si>
-    <t>landline_number</t>
-  </si>
-  <si>
-    <t>dob_date</t>
-  </si>
-  <si>
-    <t>dob_month</t>
-  </si>
-  <si>
-    <t>dob_month_short</t>
-  </si>
-  <si>
-    <t>dob_year_1994</t>
-  </si>
-  <si>
-    <t>dob_year_2006</t>
-  </si>
-  <si>
-    <t>dob_year_2003</t>
-  </si>
-  <si>
-    <t>gender_male</t>
-  </si>
-  <si>
-    <t>gender_female</t>
-  </si>
-  <si>
-    <t>email_id</t>
-  </si>
-  <si>
-    <t>test_name</t>
-  </si>
-  <si>
-    <t>add_street_number</t>
-  </si>
-  <si>
-    <t>add_street_name</t>
-  </si>
-  <si>
-    <t>add_city_name</t>
-  </si>
-  <si>
-    <t>add_pincode</t>
-  </si>
-  <si>
-    <t>add_state_name</t>
-  </si>
-  <si>
-    <t>sample_text</t>
-  </si>
-  <si>
-    <t>sample_text_1</t>
-  </si>
-  <si>
-    <t>jp_mobile_number</t>
-  </si>
-  <si>
-    <t>katakana_first_name</t>
-  </si>
-  <si>
-    <t>katakana_last_name</t>
-  </si>
-  <si>
-    <t>jp_zipcode</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>area_code</t>
-  </si>
-  <si>
-    <t>customer_title</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>customer_type</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>email_address2</t>
-  </si>
-  <si>
-    <t>email_address3</t>
-  </si>
-  <si>
-    <t>mars_id</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>TestMid</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>mraghuram19@gmail.com</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testStreet</t>
-  </si>
-  <si>
-    <t>testCity</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>テスター</t>
-  </si>
-  <si>
-    <t>サンプル</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Tourist</t>
-  </si>
-  <si>
-    <t>FE243</t>
-  </si>
-  <si>
-    <t>suzytoure@gmail.com</t>
-  </si>
-  <si>
-    <t>a@a.com</t>
-  </si>
-  <si>
-    <t>45CA0022781</t>
-  </si>
-  <si>
-    <t>テスタ</t>
-  </si>
-  <si>
-    <t>FE244</t>
-  </si>
-  <si>
-    <t>FE245</t>
-  </si>
-  <si>
-    <t>FE246</t>
-  </si>
-  <si>
-    <t>FE247</t>
-  </si>
-  <si>
-    <t>FE248</t>
-  </si>
-  <si>
-    <t>FE249</t>
-  </si>
-  <si>
-    <t>FE250</t>
-  </si>
-  <si>
-    <t>FE251</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -543,13 +543,16 @@
     <t>45H10041658</t>
   </si>
   <si>
+    <t>51B90005394</t>
+  </si>
+  <si>
+    <t>C70000000055715</t>
+  </si>
+  <si>
+    <t>45Z20004985</t>
+  </si>
+  <si>
     <t>45WM6000403</t>
-  </si>
-  <si>
-    <t>51B90005394</t>
-  </si>
-  <si>
-    <t>C70000000055715</t>
   </si>
   <si>
     <t>45j50007894</t>
@@ -1651,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF98782C-951E-4B2E-B6A1-B9CAF999F47F}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I2:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1996,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87589F0-DF68-4174-AC70-DE8ED675C90A}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2062,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -2073,10 +2076,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2095,7 +2098,7 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2120,7 +2123,7 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2174,112 +2177,112 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -2287,13 +2290,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -2308,10 +2311,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" t="s">
         <v>122</v>
-      </c>
-      <c r="J2" t="s">
-        <v>123</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -2323,46 +2326,46 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" t="s">
         <v>124</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>125</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>126</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>127</v>
       </c>
       <c r="R2">
         <v>11</v>
       </c>
       <c r="S2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" t="s">
         <v>128</v>
-      </c>
-      <c r="T2" t="s">
-        <v>129</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" t="s">
         <v>130</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>131</v>
-      </c>
-      <c r="X2" t="s">
-        <v>132</v>
       </c>
       <c r="Y2">
         <v>720123</v>
       </c>
       <c r="Z2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" t="s">
         <v>133</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>134</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -2374,25 +2377,25 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" t="s">
         <v>135</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>136</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>137</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AJ2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AK2" t="s">
         <v>140</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2400,13 +2403,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -2421,10 +2424,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
         <v>122</v>
-      </c>
-      <c r="J3" t="s">
-        <v>123</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -2436,46 +2439,46 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" t="s">
         <v>124</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>125</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>126</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>127</v>
       </c>
       <c r="R3">
         <v>11</v>
       </c>
       <c r="S3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" t="s">
         <v>128</v>
-      </c>
-      <c r="T3" t="s">
-        <v>129</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3" t="s">
         <v>130</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>131</v>
-      </c>
-      <c r="X3" t="s">
-        <v>132</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -2487,25 +2490,25 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF3" t="s">
         <v>135</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>136</v>
       </c>
-      <c r="AG3" t="s">
-        <v>137</v>
-      </c>
       <c r="AH3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI3" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK3" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ3" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2513,13 +2516,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2534,10 +2537,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" t="s">
         <v>122</v>
-      </c>
-      <c r="J4" t="s">
-        <v>123</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2549,46 +2552,46 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" t="s">
         <v>124</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>125</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>126</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>127</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" t="s">
         <v>128</v>
-      </c>
-      <c r="T4" t="s">
-        <v>129</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" t="s">
         <v>130</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>131</v>
-      </c>
-      <c r="X4" t="s">
-        <v>132</v>
       </c>
       <c r="Y4">
         <v>720123</v>
       </c>
       <c r="Z4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA4" t="s">
         <v>133</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>134</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2600,25 +2603,25 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF4" t="s">
         <v>135</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>136</v>
       </c>
-      <c r="AG4" t="s">
-        <v>137</v>
-      </c>
       <c r="AH4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK4" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ4" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2626,13 +2629,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2647,10 +2650,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
         <v>122</v>
-      </c>
-      <c r="J5" t="s">
-        <v>123</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2662,46 +2665,46 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" t="s">
         <v>124</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>125</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>126</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>127</v>
       </c>
       <c r="R5">
         <v>11</v>
       </c>
       <c r="S5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" t="s">
         <v>128</v>
-      </c>
-      <c r="T5" t="s">
-        <v>129</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W5" t="s">
         <v>130</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>131</v>
-      </c>
-      <c r="X5" t="s">
-        <v>132</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA5" t="s">
         <v>133</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>134</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2713,25 +2716,25 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF5" t="s">
         <v>135</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>136</v>
       </c>
-      <c r="AG5" t="s">
-        <v>137</v>
-      </c>
       <c r="AH5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK5" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2739,13 +2742,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
       </c>
       <c r="E6">
         <v>90838324</v>
@@ -2760,10 +2763,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" t="s">
         <v>122</v>
-      </c>
-      <c r="J6" t="s">
-        <v>123</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2775,46 +2778,46 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" t="s">
         <v>124</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>125</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>126</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>127</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" t="s">
         <v>128</v>
-      </c>
-      <c r="T6" t="s">
-        <v>129</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W6" t="s">
         <v>130</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>131</v>
-      </c>
-      <c r="X6" t="s">
-        <v>132</v>
       </c>
       <c r="Y6">
         <v>720123</v>
       </c>
       <c r="Z6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" t="s">
         <v>133</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>134</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2826,25 +2829,25 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF6" t="s">
         <v>135</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>136</v>
       </c>
-      <c r="AG6" t="s">
-        <v>137</v>
-      </c>
       <c r="AH6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AI6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK6" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2852,13 +2855,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
         <v>119</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>121</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -2873,10 +2876,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" t="s">
         <v>122</v>
-      </c>
-      <c r="J7" t="s">
-        <v>123</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -2888,46 +2891,46 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" t="s">
         <v>124</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>125</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>127</v>
       </c>
       <c r="R7">
         <v>11</v>
       </c>
       <c r="S7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" t="s">
         <v>128</v>
-      </c>
-      <c r="T7" t="s">
-        <v>129</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
+        <v>129</v>
+      </c>
+      <c r="W7" t="s">
         <v>130</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>131</v>
-      </c>
-      <c r="X7" t="s">
-        <v>132</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA7" t="s">
         <v>133</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>134</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -2939,25 +2942,25 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF7" t="s">
         <v>135</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>136</v>
       </c>
-      <c r="AG7" t="s">
-        <v>137</v>
-      </c>
       <c r="AH7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK7" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2965,13 +2968,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
         <v>119</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>121</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -2986,10 +2989,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" t="s">
         <v>122</v>
-      </c>
-      <c r="J8" t="s">
-        <v>123</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -3001,46 +3004,46 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" t="s">
         <v>124</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>125</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>126</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>127</v>
       </c>
       <c r="R8">
         <v>11</v>
       </c>
       <c r="S8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" t="s">
         <v>128</v>
-      </c>
-      <c r="T8" t="s">
-        <v>129</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
+        <v>129</v>
+      </c>
+      <c r="W8" t="s">
         <v>130</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>131</v>
-      </c>
-      <c r="X8" t="s">
-        <v>132</v>
       </c>
       <c r="Y8">
         <v>720123</v>
       </c>
       <c r="Z8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA8" t="s">
         <v>133</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>134</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -3052,25 +3055,25 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF8" t="s">
         <v>135</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>136</v>
       </c>
-      <c r="AG8" t="s">
-        <v>137</v>
-      </c>
       <c r="AH8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK8" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ8" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -3078,13 +3081,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
         <v>119</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>121</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
@@ -3099,10 +3102,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
         <v>122</v>
-      </c>
-      <c r="J9" t="s">
-        <v>123</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -3114,46 +3117,46 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" t="s">
         <v>124</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>125</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>126</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>127</v>
       </c>
       <c r="R9">
         <v>11</v>
       </c>
       <c r="S9" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" t="s">
         <v>128</v>
-      </c>
-      <c r="T9" t="s">
-        <v>129</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
+        <v>129</v>
+      </c>
+      <c r="W9" t="s">
         <v>130</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>131</v>
-      </c>
-      <c r="X9" t="s">
-        <v>132</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA9" t="s">
         <v>133</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>134</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -3165,25 +3168,25 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF9" t="s">
         <v>135</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>136</v>
       </c>
-      <c r="AG9" t="s">
-        <v>137</v>
-      </c>
       <c r="AH9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK9" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ9" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -3191,13 +3194,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
         <v>119</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>121</v>
       </c>
       <c r="E10">
         <v>6161616161</v>
@@ -3212,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
         <v>122</v>
-      </c>
-      <c r="J10" t="s">
-        <v>123</v>
       </c>
       <c r="K10">
         <v>1994</v>
@@ -3227,46 +3230,46 @@
         <v>2003</v>
       </c>
       <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
         <v>124</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>125</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>126</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>127</v>
       </c>
       <c r="R10">
         <v>11</v>
       </c>
       <c r="S10" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" t="s">
         <v>128</v>
-      </c>
-      <c r="T10" t="s">
-        <v>129</v>
       </c>
       <c r="U10">
         <v>123456</v>
       </c>
       <c r="V10" t="s">
+        <v>129</v>
+      </c>
+      <c r="W10" t="s">
         <v>130</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>131</v>
-      </c>
-      <c r="X10" t="s">
-        <v>132</v>
       </c>
       <c r="Y10">
         <v>720123</v>
       </c>
       <c r="Z10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA10" t="s">
         <v>133</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>134</v>
       </c>
       <c r="AB10">
         <v>8280004</v>
@@ -3278,25 +3281,25 @@
         <v>852</v>
       </c>
       <c r="AE10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF10" t="s">
         <v>135</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>136</v>
       </c>
-      <c r="AG10" t="s">
-        <v>137</v>
-      </c>
       <c r="AH10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK10" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ10" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -3360,7 +3363,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3387,22 +3390,22 @@
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>152</v>
@@ -3432,7 +3435,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>161</v>
@@ -3463,8 +3466,8 @@
       <c r="N2" t="s">
         <v>163</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>165</v>
+      <c r="O2" t="s">
+        <v>164</v>
       </c>
       <c r="Q2" t="s">
         <v>162</v>
@@ -3484,16 +3487,16 @@
         <v>163</v>
       </c>
       <c r="F3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" t="s">
         <v>166</v>
-      </c>
-      <c r="G3" t="s">
-        <v>167</v>
       </c>
       <c r="H3" t="s">
         <v>162</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>161</v>
@@ -3505,16 +3508,16 @@
         <v>163</v>
       </c>
       <c r="O3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" t="s">
         <v>166</v>
-      </c>
-      <c r="P3" t="s">
-        <v>167</v>
       </c>
       <c r="Q3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3527,17 +3530,17 @@
       <c r="E4" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>165</v>
+      <c r="F4" t="s">
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
         <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>161</v>
@@ -3548,11 +3551,11 @@
       <c r="N4" t="s">
         <v>163</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>165</v>
+      <c r="O4" t="s">
+        <v>167</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q4" t="s">
         <v>162</v>
@@ -3572,16 +3575,16 @@
         <v>163</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
         <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>161</v>
@@ -3592,8 +3595,8 @@
       <c r="N5" t="s">
         <v>163</v>
       </c>
-      <c r="O5" s="18" t="s">
-        <v>165</v>
+      <c r="O5" t="s">
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
         <v>162</v>
@@ -3613,16 +3616,16 @@
         <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H6" t="s">
         <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>161</v>
@@ -3634,7 +3637,7 @@
         <v>163</v>
       </c>
       <c r="O6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
         <v>162</v>
@@ -3654,13 +3657,13 @@
         <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H7" t="s">
         <v>162</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>161</v>
@@ -3672,7 +3675,7 @@
         <v>163</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
         <v>162</v>
@@ -3692,13 +3695,13 @@
         <v>163</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
         <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>161</v>
@@ -3710,7 +3713,7 @@
         <v>163</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q8" t="s">
         <v>162</v>
@@ -3730,13 +3733,13 @@
         <v>163</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H9" t="s">
         <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>161</v>
@@ -3748,7 +3751,7 @@
         <v>163</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="s">
         <v>162</v>
@@ -3768,13 +3771,13 @@
         <v>163</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
         <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>161</v>
@@ -3786,7 +3789,7 @@
         <v>163</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
         <v>162</v>
@@ -3832,10 +3835,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3843,10 +3846,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3854,10 +3857,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3865,10 +3868,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3876,10 +3879,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3887,10 +3890,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3898,10 +3901,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3909,10 +3912,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3920,10 +3923,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3931,10 +3934,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/KiehlsTestData.xlsx
+++ b/src/test/resources/Data/KiehlsTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE59CDD8-C6EB-452B-AE94-53D3CF3C6E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03473D0F-224D-472C-B5B0-5727B96A1ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="190">
   <si>
     <t>segment</t>
   </si>
@@ -282,6 +282,9 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Client Name</t>
+  </si>
+  <si>
     <t>Lucid</t>
   </si>
   <si>
@@ -501,9 +504,6 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>Client Name</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -543,16 +543,13 @@
     <t>45H10041658</t>
   </si>
   <si>
+    <t>45WM6000403</t>
+  </si>
+  <si>
     <t>51B90005394</t>
   </si>
   <si>
     <t>C70000000055715</t>
-  </si>
-  <si>
-    <t>45Z20004985</t>
-  </si>
-  <si>
-    <t>45WM6000403</t>
   </si>
   <si>
     <t>45j50007894</t>
@@ -1654,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF98782C-951E-4B2E-B6A1-B9CAF999F47F}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1999,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87589F0-DF68-4174-AC70-DE8ED675C90A}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2065,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -2076,10 +2073,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2098,7 +2095,7 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2123,7 +2120,7 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2177,112 +2174,112 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -2290,13 +2287,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -2311,10 +2308,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -2326,46 +2323,46 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R2">
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y2">
         <v>720123</v>
       </c>
       <c r="Z2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -2377,25 +2374,25 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI2" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2403,13 +2400,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -2424,10 +2421,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -2439,46 +2436,46 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R3">
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -2490,25 +2487,25 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI3" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ3" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2516,13 +2513,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2537,10 +2534,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2552,46 +2549,46 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y4">
         <v>720123</v>
       </c>
       <c r="Z4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2603,25 +2600,25 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI4" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ4" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2629,13 +2626,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2650,10 +2647,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2665,46 +2662,46 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R5">
         <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2716,25 +2713,25 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI5" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ5" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2742,13 +2739,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E6">
         <v>90838324</v>
@@ -2763,10 +2760,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2778,46 +2775,46 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y6">
         <v>720123</v>
       </c>
       <c r="Z6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2829,25 +2826,25 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI6" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2855,13 +2852,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -2876,10 +2873,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -2891,46 +2888,46 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R7">
         <v>11</v>
       </c>
       <c r="S7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -2942,25 +2939,25 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI7" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2968,13 +2965,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -2989,10 +2986,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -3004,46 +3001,46 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R8">
         <v>11</v>
       </c>
       <c r="S8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y8">
         <v>720123</v>
       </c>
       <c r="Z8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -3055,25 +3052,25 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -3081,13 +3078,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
@@ -3102,10 +3099,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -3117,46 +3114,46 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R9">
         <v>11</v>
       </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -3168,25 +3165,25 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI9" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -3194,13 +3191,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10">
         <v>6161616161</v>
@@ -3215,10 +3212,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K10">
         <v>1994</v>
@@ -3230,46 +3227,46 @@
         <v>2003</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R10">
         <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U10">
         <v>123456</v>
       </c>
       <c r="V10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y10">
         <v>720123</v>
       </c>
       <c r="Z10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB10">
         <v>8280004</v>
@@ -3281,25 +3278,25 @@
         <v>852</v>
       </c>
       <c r="AE10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI10" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ10" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -3363,7 +3360,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3390,22 +3387,22 @@
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>152</v>
@@ -3435,7 +3432,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>161</v>
@@ -3466,8 +3463,8 @@
       <c r="N2" t="s">
         <v>163</v>
       </c>
-      <c r="O2" t="s">
-        <v>164</v>
+      <c r="O2" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="Q2" t="s">
         <v>162</v>
@@ -3487,16 +3484,16 @@
         <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
         <v>162</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>161</v>
@@ -3508,16 +3505,16 @@
         <v>163</v>
       </c>
       <c r="O3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3530,17 +3527,17 @@
       <c r="E4" t="s">
         <v>163</v>
       </c>
-      <c r="F4" t="s">
-        <v>167</v>
+      <c r="F4" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
         <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>161</v>
@@ -3551,11 +3548,11 @@
       <c r="N4" t="s">
         <v>163</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" t="s">
         <v>167</v>
-      </c>
-      <c r="P4" t="s">
-        <v>166</v>
       </c>
       <c r="Q4" t="s">
         <v>162</v>
@@ -3575,16 +3572,16 @@
         <v>163</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
         <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>161</v>
@@ -3595,8 +3592,8 @@
       <c r="N5" t="s">
         <v>163</v>
       </c>
-      <c r="O5" t="s">
-        <v>167</v>
+      <c r="O5" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="Q5" t="s">
         <v>162</v>
@@ -3616,16 +3613,16 @@
         <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
         <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>161</v>
@@ -3637,7 +3634,7 @@
         <v>163</v>
       </c>
       <c r="O6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q6" t="s">
         <v>162</v>
@@ -3657,13 +3654,13 @@
         <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
         <v>162</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>161</v>
@@ -3675,7 +3672,7 @@
         <v>163</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q7" t="s">
         <v>162</v>
@@ -3695,13 +3692,13 @@
         <v>163</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
         <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>161</v>
@@ -3713,7 +3710,7 @@
         <v>163</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q8" t="s">
         <v>162</v>
@@ -3733,13 +3730,13 @@
         <v>163</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H9" t="s">
         <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>161</v>
@@ -3751,7 +3748,7 @@
         <v>163</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q9" t="s">
         <v>162</v>
@@ -3771,13 +3768,13 @@
         <v>163</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H10" t="s">
         <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>161</v>
@@ -3789,7 +3786,7 @@
         <v>163</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q10" t="s">
         <v>162</v>
@@ -3835,10 +3832,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3846,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
         <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3857,10 +3854,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
         <v>175</v>
-      </c>
-      <c r="C3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3868,10 +3865,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
         <v>177</v>
-      </c>
-      <c r="C4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3879,10 +3876,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3890,10 +3887,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
         <v>181</v>
-      </c>
-      <c r="C6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3901,10 +3898,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
         <v>183</v>
-      </c>
-      <c r="C7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3912,10 +3909,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
         <v>185</v>
-      </c>
-      <c r="C8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3923,10 +3920,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
         <v>187</v>
-      </c>
-      <c r="C9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3934,10 +3931,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
-      </c>
-      <c r="C10" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/KiehlsTestData.xlsx
+++ b/src/test/resources/Data/KiehlsTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03473D0F-224D-472C-B5B0-5727B96A1ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="826" documentId="8_{347E3A18-BC77-47F1-AF8A-0725BB4A7705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD2294E-B79D-4BB3-9D00-8B03B63226EB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="192">
   <si>
     <t>segment</t>
   </si>
@@ -282,274 +282,280 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Lucid</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>mobile_number_rand</t>
+  </si>
+  <si>
+    <t>landline_number</t>
+  </si>
+  <si>
+    <t>dob_date</t>
+  </si>
+  <si>
+    <t>dob_month</t>
+  </si>
+  <si>
+    <t>dob_month_short</t>
+  </si>
+  <si>
+    <t>dob_year_1994</t>
+  </si>
+  <si>
+    <t>dob_year_2006</t>
+  </si>
+  <si>
+    <t>dob_year_2003</t>
+  </si>
+  <si>
+    <t>gender_male</t>
+  </si>
+  <si>
+    <t>gender_female</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>test_name</t>
+  </si>
+  <si>
+    <t>add_street_number</t>
+  </si>
+  <si>
+    <t>add_street_name</t>
+  </si>
+  <si>
+    <t>add_city_name</t>
+  </si>
+  <si>
+    <t>add_pincode</t>
+  </si>
+  <si>
+    <t>add_state_name</t>
+  </si>
+  <si>
+    <t>sample_text</t>
+  </si>
+  <si>
+    <t>sample_text_1</t>
+  </si>
+  <si>
+    <t>jp_mobile_number</t>
+  </si>
+  <si>
+    <t>katakana_first_name</t>
+  </si>
+  <si>
+    <t>katakana_last_name</t>
+  </si>
+  <si>
+    <t>jp_zipcode</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>customer_title</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>email_address2</t>
+  </si>
+  <si>
+    <t>email_address3</t>
+  </si>
+  <si>
+    <t>mars_id</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>TestMid</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>mraghuram19@gmail.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testStreet</t>
+  </si>
+  <si>
+    <t>testCity</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>テスター</t>
+  </si>
+  <si>
+    <t>サンプル</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Tourist</t>
+  </si>
+  <si>
+    <t>FE243</t>
+  </si>
+  <si>
+    <t>suzytoure@gmail.com</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>403D0001455</t>
+  </si>
+  <si>
+    <t>テスタ</t>
+  </si>
+  <si>
+    <t>FE244</t>
+  </si>
+  <si>
+    <t>FE245</t>
+  </si>
+  <si>
+    <t>FE246</t>
+  </si>
+  <si>
+    <t>FE247</t>
+  </si>
+  <si>
+    <t>FE248</t>
+  </si>
+  <si>
+    <t>FE249</t>
+  </si>
+  <si>
+    <t>FE250</t>
+  </si>
+  <si>
+    <t>FE251</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
     <t>Client Name</t>
   </si>
   <si>
-    <t>Lucid</t>
-  </si>
-  <si>
-    <t>名前（名）</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>mobile_number</t>
-  </si>
-  <si>
-    <t>mobile_number_rand</t>
-  </si>
-  <si>
-    <t>landline_number</t>
-  </si>
-  <si>
-    <t>dob_date</t>
-  </si>
-  <si>
-    <t>dob_month</t>
-  </si>
-  <si>
-    <t>dob_month_short</t>
-  </si>
-  <si>
-    <t>dob_year_1994</t>
-  </si>
-  <si>
-    <t>dob_year_2006</t>
-  </si>
-  <si>
-    <t>dob_year_2003</t>
-  </si>
-  <si>
-    <t>gender_male</t>
-  </si>
-  <si>
-    <t>gender_female</t>
-  </si>
-  <si>
-    <t>email_id</t>
-  </si>
-  <si>
-    <t>test_name</t>
-  </si>
-  <si>
-    <t>add_street_number</t>
-  </si>
-  <si>
-    <t>add_street_name</t>
-  </si>
-  <si>
-    <t>add_city_name</t>
-  </si>
-  <si>
-    <t>add_pincode</t>
-  </si>
-  <si>
-    <t>add_state_name</t>
-  </si>
-  <si>
-    <t>sample_text</t>
-  </si>
-  <si>
-    <t>sample_text_1</t>
-  </si>
-  <si>
-    <t>jp_mobile_number</t>
-  </si>
-  <si>
-    <t>katakana_first_name</t>
-  </si>
-  <si>
-    <t>katakana_last_name</t>
-  </si>
-  <si>
-    <t>jp_zipcode</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>area_code</t>
-  </si>
-  <si>
-    <t>customer_title</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>customer_type</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>email_address2</t>
-  </si>
-  <si>
-    <t>email_address3</t>
-  </si>
-  <si>
-    <t>mars_id</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>TestMid</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>mraghuram19@gmail.com</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testStreet</t>
-  </si>
-  <si>
-    <t>testCity</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>テスター</t>
-  </si>
-  <si>
-    <t>サンプル</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Tourist</t>
-  </si>
-  <si>
-    <t>FE243</t>
-  </si>
-  <si>
-    <t>suzytoure@gmail.com</t>
-  </si>
-  <si>
-    <t>a@a.com</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Name_dashboard</t>
+  </si>
+  <si>
+    <t>Email_dashboard</t>
+  </si>
+  <si>
+    <t>Mobile Number_dashboard</t>
+  </si>
+  <si>
+    <t>First Name_dashboard</t>
+  </si>
+  <si>
+    <t>Last Name_dashboard</t>
+  </si>
+  <si>
+    <t>Mars ID_dashboard</t>
+  </si>
+  <si>
+    <t>Lucid_dashboard</t>
+  </si>
+  <si>
+    <t>Client Name_dashboard</t>
+  </si>
+  <si>
+    <t>emptydatatest@gmail.com</t>
+  </si>
+  <si>
+    <t>EmptyData</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>45H10041658</t>
+  </si>
+  <si>
+    <t>51B90005394</t>
+  </si>
+  <si>
+    <t>C70000000055715</t>
+  </si>
+  <si>
+    <t>45Z20004985</t>
   </si>
   <si>
     <t>45CA0022781</t>
   </si>
   <si>
-    <t>テスタ</t>
-  </si>
-  <si>
-    <t>FE244</t>
-  </si>
-  <si>
-    <t>FE245</t>
-  </si>
-  <si>
-    <t>FE246</t>
-  </si>
-  <si>
-    <t>FE247</t>
-  </si>
-  <si>
-    <t>FE248</t>
-  </si>
-  <si>
-    <t>FE249</t>
-  </si>
-  <si>
-    <t>FE250</t>
-  </si>
-  <si>
-    <t>FE251</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Name_dashboard</t>
-  </si>
-  <si>
-    <t>Email_dashboard</t>
-  </si>
-  <si>
-    <t>Mobile Number_dashboard</t>
-  </si>
-  <si>
-    <t>First Name_dashboard</t>
-  </si>
-  <si>
-    <t>Last Name_dashboard</t>
-  </si>
-  <si>
-    <t>Mars ID_dashboard</t>
-  </si>
-  <si>
-    <t>Lucid_dashboard</t>
-  </si>
-  <si>
-    <t>Client Name_dashboard</t>
-  </si>
-  <si>
-    <t>emptydatatest@gmail.com</t>
-  </si>
-  <si>
-    <t>EmptyData</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>45H10041658</t>
-  </si>
-  <si>
     <t>45WM6000403</t>
-  </si>
-  <si>
-    <t>51B90005394</t>
-  </si>
-  <si>
-    <t>C70000000055715</t>
   </si>
   <si>
     <t>45j50007894</t>
@@ -1199,14 +1205,14 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
@@ -1429,16 +1435,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCACCAE3-DBC4-457A-B8DF-93037B09B635}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1651,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF98782C-951E-4B2E-B6A1-B9CAF999F47F}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I2:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1997,7 +2004,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2062,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -2073,10 +2080,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2095,7 +2102,7 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2120,7 +2127,7 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2132,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
   <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2167,6 +2174,7 @@
     <col min="34" max="34" width="17.42578125" customWidth="1"/>
     <col min="35" max="35" width="13.7109375" customWidth="1"/>
     <col min="36" max="36" width="18.42578125" customWidth="1"/>
+    <col min="37" max="37" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1">
@@ -2174,112 +2182,112 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -2287,13 +2295,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -2308,10 +2316,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" t="s">
         <v>122</v>
-      </c>
-      <c r="J2" t="s">
-        <v>123</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -2323,46 +2331,46 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" t="s">
         <v>124</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>125</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>126</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>127</v>
       </c>
       <c r="R2">
         <v>11</v>
       </c>
       <c r="S2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" t="s">
         <v>128</v>
-      </c>
-      <c r="T2" t="s">
-        <v>129</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" t="s">
         <v>130</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>131</v>
-      </c>
-      <c r="X2" t="s">
-        <v>132</v>
       </c>
       <c r="Y2">
         <v>720123</v>
       </c>
       <c r="Z2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" t="s">
         <v>133</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>134</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -2374,25 +2382,25 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" t="s">
         <v>135</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>136</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>137</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AJ2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AK2" t="s">
         <v>140</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2400,13 +2408,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -2421,10 +2429,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
         <v>122</v>
-      </c>
-      <c r="J3" t="s">
-        <v>123</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -2436,46 +2444,46 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" t="s">
         <v>124</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>125</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>126</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>127</v>
       </c>
       <c r="R3">
         <v>11</v>
       </c>
       <c r="S3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" t="s">
         <v>128</v>
-      </c>
-      <c r="T3" t="s">
-        <v>129</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3" t="s">
         <v>130</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>131</v>
-      </c>
-      <c r="X3" t="s">
-        <v>132</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -2487,25 +2495,25 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF3" t="s">
         <v>135</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>136</v>
       </c>
-      <c r="AG3" t="s">
-        <v>137</v>
-      </c>
       <c r="AH3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI3" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK3" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ3" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2513,13 +2521,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -2534,10 +2542,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" t="s">
         <v>122</v>
-      </c>
-      <c r="J4" t="s">
-        <v>123</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -2549,46 +2557,46 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" t="s">
         <v>124</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>125</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>126</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>127</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" t="s">
         <v>128</v>
-      </c>
-      <c r="T4" t="s">
-        <v>129</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" t="s">
         <v>130</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>131</v>
-      </c>
-      <c r="X4" t="s">
-        <v>132</v>
       </c>
       <c r="Y4">
         <v>720123</v>
       </c>
       <c r="Z4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA4" t="s">
         <v>133</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>134</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2600,25 +2608,25 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF4" t="s">
         <v>135</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>136</v>
       </c>
-      <c r="AG4" t="s">
-        <v>137</v>
-      </c>
       <c r="AH4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK4" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ4" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2626,13 +2634,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
       </c>
       <c r="E5">
         <v>9876543212</v>
@@ -2647,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
         <v>122</v>
-      </c>
-      <c r="J5" t="s">
-        <v>123</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2662,46 +2670,46 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" t="s">
         <v>124</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>125</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>126</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>127</v>
       </c>
       <c r="R5">
         <v>11</v>
       </c>
       <c r="S5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" t="s">
         <v>128</v>
-      </c>
-      <c r="T5" t="s">
-        <v>129</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W5" t="s">
         <v>130</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>131</v>
-      </c>
-      <c r="X5" t="s">
-        <v>132</v>
       </c>
       <c r="Y5">
         <v>720123</v>
       </c>
       <c r="Z5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA5" t="s">
         <v>133</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>134</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2713,25 +2721,25 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF5" t="s">
         <v>135</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>136</v>
       </c>
-      <c r="AG5" t="s">
-        <v>137</v>
-      </c>
       <c r="AH5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK5" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -2739,13 +2747,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
       </c>
       <c r="E6">
         <v>90838324</v>
@@ -2760,10 +2768,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" t="s">
         <v>122</v>
-      </c>
-      <c r="J6" t="s">
-        <v>123</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2775,46 +2783,46 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" t="s">
         <v>124</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>125</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>126</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>127</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" t="s">
         <v>128</v>
-      </c>
-      <c r="T6" t="s">
-        <v>129</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W6" t="s">
         <v>130</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>131</v>
-      </c>
-      <c r="X6" t="s">
-        <v>132</v>
       </c>
       <c r="Y6">
         <v>720123</v>
       </c>
       <c r="Z6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" t="s">
         <v>133</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>134</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2826,25 +2834,25 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF6" t="s">
         <v>135</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>136</v>
       </c>
-      <c r="AG6" t="s">
-        <v>137</v>
-      </c>
       <c r="AH6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AI6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK6" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2852,13 +2860,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
         <v>119</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>121</v>
       </c>
       <c r="E7">
         <v>6161616161</v>
@@ -2873,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" t="s">
         <v>122</v>
-      </c>
-      <c r="J7" t="s">
-        <v>123</v>
       </c>
       <c r="K7">
         <v>1994</v>
@@ -2888,46 +2896,46 @@
         <v>2003</v>
       </c>
       <c r="N7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" t="s">
         <v>124</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>125</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>127</v>
       </c>
       <c r="R7">
         <v>11</v>
       </c>
       <c r="S7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" t="s">
         <v>128</v>
-      </c>
-      <c r="T7" t="s">
-        <v>129</v>
       </c>
       <c r="U7">
         <v>123456</v>
       </c>
       <c r="V7" t="s">
+        <v>129</v>
+      </c>
+      <c r="W7" t="s">
         <v>130</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>131</v>
-      </c>
-      <c r="X7" t="s">
-        <v>132</v>
       </c>
       <c r="Y7">
         <v>720123</v>
       </c>
       <c r="Z7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA7" t="s">
         <v>133</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>134</v>
       </c>
       <c r="AB7">
         <v>8280004</v>
@@ -2939,25 +2947,25 @@
         <v>852</v>
       </c>
       <c r="AE7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF7" t="s">
         <v>135</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>136</v>
       </c>
-      <c r="AG7" t="s">
-        <v>137</v>
-      </c>
       <c r="AH7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK7" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2965,13 +2973,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
         <v>119</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>121</v>
       </c>
       <c r="E8">
         <v>9876543212</v>
@@ -2986,10 +2994,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" t="s">
         <v>122</v>
-      </c>
-      <c r="J8" t="s">
-        <v>123</v>
       </c>
       <c r="K8">
         <v>1994</v>
@@ -3001,46 +3009,46 @@
         <v>2003</v>
       </c>
       <c r="N8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" t="s">
         <v>124</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>125</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>126</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>127</v>
       </c>
       <c r="R8">
         <v>11</v>
       </c>
       <c r="S8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" t="s">
         <v>128</v>
-      </c>
-      <c r="T8" t="s">
-        <v>129</v>
       </c>
       <c r="U8">
         <v>123456</v>
       </c>
       <c r="V8" t="s">
+        <v>129</v>
+      </c>
+      <c r="W8" t="s">
         <v>130</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>131</v>
-      </c>
-      <c r="X8" t="s">
-        <v>132</v>
       </c>
       <c r="Y8">
         <v>720123</v>
       </c>
       <c r="Z8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA8" t="s">
         <v>133</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>134</v>
       </c>
       <c r="AB8">
         <v>8280004</v>
@@ -3052,25 +3060,25 @@
         <v>852</v>
       </c>
       <c r="AE8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF8" t="s">
         <v>135</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>136</v>
       </c>
-      <c r="AG8" t="s">
-        <v>137</v>
-      </c>
       <c r="AH8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK8" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ8" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -3078,13 +3086,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
         <v>119</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>121</v>
       </c>
       <c r="E9">
         <v>9876543212</v>
@@ -3099,10 +3107,10 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
         <v>122</v>
-      </c>
-      <c r="J9" t="s">
-        <v>123</v>
       </c>
       <c r="K9">
         <v>1994</v>
@@ -3114,46 +3122,46 @@
         <v>2003</v>
       </c>
       <c r="N9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" t="s">
         <v>124</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>125</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>126</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>127</v>
       </c>
       <c r="R9">
         <v>11</v>
       </c>
       <c r="S9" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" t="s">
         <v>128</v>
-      </c>
-      <c r="T9" t="s">
-        <v>129</v>
       </c>
       <c r="U9">
         <v>123456</v>
       </c>
       <c r="V9" t="s">
+        <v>129</v>
+      </c>
+      <c r="W9" t="s">
         <v>130</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>131</v>
-      </c>
-      <c r="X9" t="s">
-        <v>132</v>
       </c>
       <c r="Y9">
         <v>720123</v>
       </c>
       <c r="Z9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA9" t="s">
         <v>133</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>134</v>
       </c>
       <c r="AB9">
         <v>8280004</v>
@@ -3165,25 +3173,25 @@
         <v>852</v>
       </c>
       <c r="AE9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF9" t="s">
         <v>135</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>136</v>
       </c>
-      <c r="AG9" t="s">
-        <v>137</v>
-      </c>
       <c r="AH9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK9" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ9" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -3191,13 +3199,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
         <v>119</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>121</v>
       </c>
       <c r="E10">
         <v>6161616161</v>
@@ -3212,10 +3220,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
         <v>122</v>
-      </c>
-      <c r="J10" t="s">
-        <v>123</v>
       </c>
       <c r="K10">
         <v>1994</v>
@@ -3227,46 +3235,46 @@
         <v>2003</v>
       </c>
       <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
         <v>124</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>125</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>126</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>127</v>
       </c>
       <c r="R10">
         <v>11</v>
       </c>
       <c r="S10" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" t="s">
         <v>128</v>
-      </c>
-      <c r="T10" t="s">
-        <v>129</v>
       </c>
       <c r="U10">
         <v>123456</v>
       </c>
       <c r="V10" t="s">
+        <v>129</v>
+      </c>
+      <c r="W10" t="s">
         <v>130</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>131</v>
-      </c>
-      <c r="X10" t="s">
-        <v>132</v>
       </c>
       <c r="Y10">
         <v>720123</v>
       </c>
       <c r="Z10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA10" t="s">
         <v>133</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>134</v>
       </c>
       <c r="AB10">
         <v>8280004</v>
@@ -3278,25 +3286,25 @@
         <v>852</v>
       </c>
       <c r="AE10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF10" t="s">
         <v>135</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>136</v>
       </c>
-      <c r="AG10" t="s">
-        <v>137</v>
-      </c>
       <c r="AH10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK10" t="s">
         <v>140</v>
-      </c>
-      <c r="AJ10" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -3360,7 +3368,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3387,22 +3395,22 @@
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>152</v>
@@ -3432,7 +3440,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>161</v>
@@ -3463,8 +3471,8 @@
       <c r="N2" t="s">
         <v>163</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>165</v>
+      <c r="O2" t="s">
+        <v>164</v>
       </c>
       <c r="Q2" t="s">
         <v>162</v>
@@ -3484,16 +3492,16 @@
         <v>163</v>
       </c>
       <c r="F3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" t="s">
         <v>166</v>
-      </c>
-      <c r="G3" t="s">
-        <v>167</v>
       </c>
       <c r="H3" t="s">
         <v>162</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>161</v>
@@ -3505,16 +3513,16 @@
         <v>163</v>
       </c>
       <c r="O3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" t="s">
         <v>166</v>
-      </c>
-      <c r="P3" t="s">
-        <v>167</v>
       </c>
       <c r="Q3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3527,17 +3535,17 @@
       <c r="E4" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>165</v>
+      <c r="F4" t="s">
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
         <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>161</v>
@@ -3548,11 +3556,11 @@
       <c r="N4" t="s">
         <v>163</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>165</v>
+      <c r="O4" t="s">
+        <v>167</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q4" t="s">
         <v>162</v>
@@ -3572,16 +3580,16 @@
         <v>163</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
         <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>161</v>
@@ -3592,8 +3600,8 @@
       <c r="N5" t="s">
         <v>163</v>
       </c>
-      <c r="O5" s="18" t="s">
-        <v>165</v>
+      <c r="O5" t="s">
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
         <v>162</v>
@@ -3613,16 +3621,16 @@
         <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H6" t="s">
         <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>161</v>
@@ -3634,7 +3642,7 @@
         <v>163</v>
       </c>
       <c r="O6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q6" t="s">
         <v>162</v>
@@ -3654,13 +3662,13 @@
         <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
         <v>162</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>161</v>
@@ -3672,7 +3680,7 @@
         <v>163</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q7" t="s">
         <v>162</v>
@@ -3692,13 +3700,13 @@
         <v>163</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
         <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>161</v>
@@ -3710,7 +3718,7 @@
         <v>163</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q8" t="s">
         <v>162</v>
@@ -3730,13 +3738,13 @@
         <v>163</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H9" t="s">
         <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>161</v>
@@ -3748,7 +3756,7 @@
         <v>163</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q9" t="s">
         <v>162</v>
@@ -3768,13 +3776,13 @@
         <v>163</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H10" t="s">
         <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>161</v>
@@ -3786,7 +3794,7 @@
         <v>163</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q10" t="s">
         <v>162</v>
@@ -3832,10 +3840,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3843,10 +3851,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3854,10 +3862,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3865,10 +3873,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3876,10 +3884,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3887,10 +3895,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3898,10 +3906,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3909,10 +3917,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3920,10 +3928,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3931,10 +3939,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
